--- a/doc/Results/Resnet18_MNIST_PS2.xlsx
+++ b/doc/Results/Resnet18_MNIST_PS2.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="1" r:id="rId1"/>
-    <sheet name="Uniform Filters" sheetId="3" r:id="rId2"/>
-    <sheet name="Uniform Patch" sheetId="4" r:id="rId3"/>
-    <sheet name="Uniform Layer" sheetId="2" r:id="rId4"/>
+    <sheet name="Max Granularity" sheetId="5" r:id="rId2"/>
+    <sheet name="Uniform Filters" sheetId="3" r:id="rId3"/>
+    <sheet name="Uniform Patch" sheetId="4" r:id="rId4"/>
+    <sheet name="Uniform Layer" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="690">
   <si>
     <t>option</t>
   </si>
@@ -1581,6 +1582,522 @@
   </si>
   <si>
     <t>Uniform Layer</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 2, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 2, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 2, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 2, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 1, 2, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 1, 2, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 2, 1, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 2, 2, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 2, 3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 2]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 3]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 4]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 6]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 7]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 8]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 9]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 0, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 1, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 2, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 3, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 4, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 5, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 6, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 7, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 8, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 9, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 10, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1, 10, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 0, 2, 1, 1, 1, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 0, 2, 1, 1, 2, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 0, 2, 1, 1, 3, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 0, 2, 1, 1, 4, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 1, 2, 1, 1, 4, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 2, 2, 1, 1, 4, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 3, 2, 1, 1, 4, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 4, 2, 1, 1, 4, 1, 2, 4, 1, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 4, 2, 1, 1, 4, 1, 2, 4, 2, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 4, 2, 1, 1, 4, 1, 2, 4, 3, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 4, 2, 1, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 4, 2, 2, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 4, 2, 3, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[0, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[1, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[2, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[3, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[4, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[5, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[6, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[7, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 4, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 5, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 6, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 7, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 8, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 9, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 2, 4, 1, 4, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 2, 4, 1, 5, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 2, 4, 1, 6, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 2, 4, 1, 7, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 2, 4, 1, 8, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 3, 4, 1, 8, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 4, 4, 1, 8, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 5, 4, 1, 8, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 6, 4, 1, 8, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 7, 4, 1, 8, 1, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 7, 4, 1, 8, 2, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 7, 4, 1, 8, 3, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 7, 4, 1, 8, 4, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 0, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 1, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 2, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 3, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 4, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 0, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 1, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 2, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 3, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 4, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 5, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 6, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 7, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 8, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 9, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 2, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 3, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 4, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 4, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 5, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 6, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 7, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 8, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 9, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 1, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 2, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 3, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 4, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 5, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 5, 10, 2, 5, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 6, 10, 2, 5, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 7, 10, 2, 5, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 8, 10, 2, 5, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 9, 10, 2, 5, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 5, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 6, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 7, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 8, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 9, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 6, 10, 7, 4, 1, 8, 5, 2, 4, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 6, 10, 7, 4, 1, 8, 5, 2, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 7, 10, 7, 4, 1, 8, 5, 2, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 8, 5, 2, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 8, 5, 3, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 8, 5, 4, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 8, 5, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 9, 5, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 10, 5, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 10, 6, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 10, 7, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 8, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 9, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[8, 10, 10, 10, 2, 10, 10, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[9, 10, 10, 10, 2, 10, 10, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 2, 10, 10, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 3, 10, 10, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 4, 10, 10, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 5, 10, 10, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 4, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 5, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 6, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 7, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 1, 10, 8, 5, 5, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 1, 10, 8, 5, 6, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 1, 10, 8, 5, 7, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 1, 10, 8, 5, 8, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 1, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 2, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 3, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 4, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 5, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 6, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 8, 7, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 9, 7, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 7, 10, 7, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 8, 10, 7, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 9, 10, 7, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 10, 10, 7, 10, 8, 5, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 10, 10, 7, 10, 8, 6, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 10, 10, 7, 10, 8, 7, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 10, 10, 7, 10, 8, 8, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 6, 10, 10, 10, 10, 10, 7, 10, 8, 9, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 7, 10, 10, 10, 10, 10, 7, 10, 8, 9, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 8, 10, 10, 10, 10, 10, 7, 10, 8, 9, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 9, 10, 10, 10, 10, 10, 7, 10, 8, 9, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 7, 10, 8, 9, 9, 10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 7, 10, 8, 9, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 7, 10, 8, 9, 9, 11, 11]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 7, 10, 8, 9, 10, 11, 11]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 7, 10, 8, 10, 10, 11, 11]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 7, 10, 9, 10, 10, 11, 11]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 10, 10, 10, 10, 10, 10, 8, 10, 9, 10, 10, 11, 11]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 10, 10, 10, 11, 10, 10, 8, 10, 9, 10, 10, 11, 11]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 10, 11, 10, 10, 11, 10, 10, 8, 10, 9, 10, 10, 11, 11]</t>
+  </si>
+  <si>
+    <t>[10, 10, 10, 11, 11, 10, 10, 11, 10, 10, 8, 10, 9, 10, 10, 11, 11]</t>
+  </si>
+  <si>
+    <t>[10, 11, 10, 11, 11, 10, 10, 11, 10, 10, 8, 10, 9, 10, 10, 11, 11]</t>
   </si>
 </sst>
 </file>
@@ -1712,8 +2229,102 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summery!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summery!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summery!$B$12:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15970485344888899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.161716674526623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.162646179616315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.162646179616315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.164420573658171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.165272133933656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Summery!$C$11</c:f>
@@ -1807,7 +2418,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Summery!$D$11</c:f>
@@ -1901,7 +2512,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Summery!$E$11</c:f>
@@ -1995,7 +2606,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Summery!$A$5</c:f>
@@ -2090,11 +2701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334394296"/>
-        <c:axId val="334395080"/>
+        <c:axId val="403321304"/>
+        <c:axId val="403320128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334394296"/>
+        <c:axId val="403321304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2214,12 +2825,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334395080"/>
+        <c:crossAx val="403320128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334395080"/>
+        <c:axId val="403320128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -2334,7 +2945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334394296"/>
+        <c:crossAx val="403321304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2515,8 +3126,1098 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summery!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max Granularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Max Granularity'!$B$2:$B$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>88.3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>98.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Max Granularity'!$E$2:$E$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>0.36589325437784698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36412575855993701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36229529559367801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36117489366813699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35872217575455501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35600290966685599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35509019744803499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.353052102612471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.351908336595956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34979656801679898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34882550229569997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34799873202591097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34765056413724299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.347091994856919</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.345472747455153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.34472862685079703</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34386889370373003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.343132734641941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34221606056022202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.341880554616315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.341777543956435</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.34166924562215201</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34143696834068898</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.34138628052035802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34126819876494802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33986512982275002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33852304598519301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33742044908527902</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.33458270750284702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.333655217824601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32098132296412302</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31935687241956101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31902674535520997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31870274905680501</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31843974008755599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31821856314065999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31767769878274399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.31653839514521598</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.31329420558086502</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31019167986546098</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30736108787727701</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30549215190774398</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.30418150270501099</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.301632429883257</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.29996017671554598</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.29464083855353002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.29287900857773302</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.29171288172693599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.29085402281463502</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28800988129982902</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.28509079139379201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28287803646426501</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.28173426377420202</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.27782325775911099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.27671317758755598</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.26339456016870699</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.26116462975156601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.26084671305523899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.26063345760962398</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.26035945063354199</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.259451071771782</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.25900712067554099</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.25872562820330203</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.25837830785520999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.258183509218394</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.25777872294988602</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.25711368833641801</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.25592239553673102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.25509998976722598</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.25410665219248202</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.25301848127847298</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.249594706541856</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.24899526178103601</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.24878524745515301</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.24850117231990301</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.24705981278473799</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24623755160876901</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.24477128194404801</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.244287999181378</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.242984661962556</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.23995428619732301</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.23849104409880401</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.23368257714621299</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.23257136024701</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.23156732942411701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.229283505659168</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.22808583294775001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.21631868192981199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.215216865834994</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.21493774247223801</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.21475722522779001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.214529643899487</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.21429028375925399</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.21389614402405999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.212933366849373</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.205250814172836</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.202790103573462</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.20228843073747099</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.20195291589550099</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.201661902495017</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.20127073026409401</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.201166952146213</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.20094878496939</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.19751279319120099</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.195839623522921</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.191163929029043</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.189874383809083</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.18927633604427599</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.189090028384823</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.18861526329370701</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.188205158207574</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.18799834496013601</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.18752934581434999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.18710172266514799</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.186829900163724</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.186585957520643</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.18642040904399201</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.186056513827591</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.18557700606847899</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.18520877749501699</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.184899458552818</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.18405767724943001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.18360156694903099</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.183167619500996</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.18287905529256801</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.18238585118878101</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.18137202137314901</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.18111551021497699</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.18075935853858199</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.180538388471668</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.18018912612115601</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.18008614437998199</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.17951183887386099</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.17875726304456099</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.17341717904683901</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.17248004164293801</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.172296503505837</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.171659996084851</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.17083938772423099</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.17006631282033</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.168802810008542</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.16825941415147999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.16775542114535799</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.167536301875711</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.167161844657602</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.166448380107488</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.165272133933656</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.164420573658171</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.162946856314066</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.162646179616315</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.162020745835706</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.161716674526623</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.161192482915717</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.160910363129982</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.160668789596383</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.160273126067767</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.15970485344888899</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.159353057374715</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.15919380872722</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.15889735638524999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.15864433326808</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.15843366493451</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.15820881086275601</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.157675674473234</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.15565903954299501</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.15357275946753901</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.15210579797835899</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.151061926074886</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.14769406232203799</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.142104983805523</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.13261308104356401</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.12443022138382601</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.100178108093678</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.7677583107915699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Summery!$C$11</c:f>
@@ -3516,7 +5217,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Summery!$D$11</c:f>
@@ -4636,7 +6337,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Summery!$E$11</c:f>
@@ -5666,7 +7367,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Summery!$A$5</c:f>
@@ -5761,11 +7462,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334395864"/>
-        <c:axId val="334396648"/>
+        <c:axId val="403325224"/>
+        <c:axId val="403323264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334395864"/>
+        <c:axId val="403325224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5880,12 +7581,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334396648"/>
+        <c:crossAx val="403323264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334396648"/>
+        <c:axId val="403323264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.35000000000000003"/>
@@ -6005,7 +7706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334395864"/>
+        <c:crossAx val="403325224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7532,8 +9233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7621,6 +9322,10 @@
       <c r="A12">
         <v>0</v>
       </c>
+      <c r="B12">
+        <f t="array" ref="B12">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;($B$3 - $A12 -0.001),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.15970485344888899</v>
+      </c>
       <c r="C12">
         <f t="array" ref="C12">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;($B$3 - $A12 -0.001),'Uniform Patch'!$E$2:$E$9391))</f>
         <v>0.14594279879698099</v>
@@ -7638,6 +9343,10 @@
       <c r="A13">
         <v>0.5</v>
       </c>
+      <c r="B13">
+        <f t="array" ref="B13">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;($B$3 - $A13 -0.001),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.161716674526623</v>
+      </c>
       <c r="C13">
         <f t="array" ref="C13">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;($B$3 - $A13 -0.001),'Uniform Patch'!$E$2:$E$9391))</f>
         <v>0.16485275039151401</v>
@@ -7655,6 +9364,10 @@
       <c r="A14">
         <v>1</v>
       </c>
+      <c r="B14">
+        <f t="array" ref="B14">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;($B$3 - $A14 -0.001),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.162646179616315</v>
+      </c>
       <c r="C14">
         <f t="array" ref="C14">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;($B$3 - $A14 -0.001),'Uniform Patch'!$E$2:$E$9391))</f>
         <v>0.165284248647494</v>
@@ -7672,6 +9385,10 @@
       <c r="A15">
         <v>1.2</v>
       </c>
+      <c r="B15">
+        <f t="array" ref="B15">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;($B$3 - $A15 -0.001),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.162646179616315</v>
+      </c>
       <c r="C15">
         <f t="array" ref="C15">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;($B$3 - $A15 -0.001),'Uniform Patch'!$E$2:$E$9391))</f>
         <v>0.17183070988752799</v>
@@ -7689,6 +9406,10 @@
       <c r="A16">
         <v>2</v>
       </c>
+      <c r="B16">
+        <f t="array" ref="B16">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;($B$3 - $A16 -0.001),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.164420573658171</v>
+      </c>
       <c r="C16">
         <f t="array" ref="C16">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;($B$3 - $A16 -0.001),'Uniform Patch'!$E$2:$E$9391))</f>
         <v>0.17281563434296601</v>
@@ -7705,6 +9426,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.5</v>
+      </c>
+      <c r="B17">
+        <f t="array" ref="B17">MAX(IF('Max Granularity'!$B$2:$B$9391&gt;($B$3 - $A17 -0.001),'Max Granularity'!$E$2:$E$9391))</f>
+        <v>0.165272133933656</v>
       </c>
       <c r="C17">
         <f t="array" ref="C17">MAX(IF('Uniform Patch'!$B$2:$B$9391&gt;($B$3 - $A17 -0.001),'Uniform Patch'!$E$2:$E$9391))</f>
@@ -7726,6 +9451,2996 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E175"/>
+  <sheetViews>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection sqref="A1:E175"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>17.5</v>
+      </c>
+      <c r="C2">
+        <v>164482190</v>
+      </c>
+      <c r="D2">
+        <v>449536000</v>
+      </c>
+      <c r="E2">
+        <v>0.36589325437784698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3">
+        <v>19.8</v>
+      </c>
+      <c r="C3">
+        <v>163687637</v>
+      </c>
+      <c r="D3">
+        <v>449536000</v>
+      </c>
+      <c r="E3">
+        <v>0.36412575855993701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4">
+        <v>20.8</v>
+      </c>
+      <c r="C4">
+        <v>162864778</v>
+      </c>
+      <c r="D4">
+        <v>449536000</v>
+      </c>
+      <c r="E4">
+        <v>0.36229529559367801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5">
+        <v>22.4</v>
+      </c>
+      <c r="C5">
+        <v>162361117</v>
+      </c>
+      <c r="D5">
+        <v>449536000</v>
+      </c>
+      <c r="E5">
+        <v>0.36117489366813699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6">
+        <v>24.5</v>
+      </c>
+      <c r="C6">
+        <v>161258532</v>
+      </c>
+      <c r="D6">
+        <v>449536000</v>
+      </c>
+      <c r="E6">
+        <v>0.35872217575455501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B7">
+        <v>23.9</v>
+      </c>
+      <c r="C7">
+        <v>160036124</v>
+      </c>
+      <c r="D7">
+        <v>449536000</v>
+      </c>
+      <c r="E7">
+        <v>0.35600290966685599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B8">
+        <v>23.6</v>
+      </c>
+      <c r="C8">
+        <v>159625827</v>
+      </c>
+      <c r="D8">
+        <v>449536000</v>
+      </c>
+      <c r="E8">
+        <v>0.35509019744803499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9">
+        <v>24.8</v>
+      </c>
+      <c r="C9">
+        <v>158709630</v>
+      </c>
+      <c r="D9">
+        <v>449536000</v>
+      </c>
+      <c r="E9">
+        <v>0.353052102612471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B10">
+        <v>27.7</v>
+      </c>
+      <c r="C10">
+        <v>158195466</v>
+      </c>
+      <c r="D10">
+        <v>449536000</v>
+      </c>
+      <c r="E10">
+        <v>0.351908336595956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11">
+        <v>26.7</v>
+      </c>
+      <c r="C11">
+        <v>157246150</v>
+      </c>
+      <c r="D11">
+        <v>449536000</v>
+      </c>
+      <c r="E11">
+        <v>0.34979656801679898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12">
+        <v>29.2</v>
+      </c>
+      <c r="C12">
+        <v>156809621</v>
+      </c>
+      <c r="D12">
+        <v>449536000</v>
+      </c>
+      <c r="E12">
+        <v>0.34882550229569997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13">
+        <v>30.9</v>
+      </c>
+      <c r="C13">
+        <v>156437958</v>
+      </c>
+      <c r="D13">
+        <v>449536000</v>
+      </c>
+      <c r="E13">
+        <v>0.34799873202591097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14">
+        <v>31.3</v>
+      </c>
+      <c r="C14">
+        <v>156281444</v>
+      </c>
+      <c r="D14">
+        <v>449536000</v>
+      </c>
+      <c r="E14">
+        <v>0.34765056413724299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B15">
+        <v>30.3</v>
+      </c>
+      <c r="C15">
+        <v>156030347</v>
+      </c>
+      <c r="D15">
+        <v>449536000</v>
+      </c>
+      <c r="E15">
+        <v>0.347091994856919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>530</v>
+      </c>
+      <c r="B16">
+        <v>30.9</v>
+      </c>
+      <c r="C16">
+        <v>155302437</v>
+      </c>
+      <c r="D16">
+        <v>449536000</v>
+      </c>
+      <c r="E16">
+        <v>0.345472747455153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B17">
+        <v>30.6</v>
+      </c>
+      <c r="C17">
+        <v>154967928</v>
+      </c>
+      <c r="D17">
+        <v>449536000</v>
+      </c>
+      <c r="E17">
+        <v>0.34472862685079703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>532</v>
+      </c>
+      <c r="B18">
+        <v>31.3</v>
+      </c>
+      <c r="C18">
+        <v>154581447</v>
+      </c>
+      <c r="D18">
+        <v>449536000</v>
+      </c>
+      <c r="E18">
+        <v>0.34386889370373003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>533</v>
+      </c>
+      <c r="B19">
+        <v>31.2</v>
+      </c>
+      <c r="C19">
+        <v>154250517</v>
+      </c>
+      <c r="D19">
+        <v>449536000</v>
+      </c>
+      <c r="E19">
+        <v>0.343132734641941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>534</v>
+      </c>
+      <c r="B20">
+        <v>31.5</v>
+      </c>
+      <c r="C20">
+        <v>153838439</v>
+      </c>
+      <c r="D20">
+        <v>449536000</v>
+      </c>
+      <c r="E20">
+        <v>0.34221606056022202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>535</v>
+      </c>
+      <c r="B21">
+        <v>31.4</v>
+      </c>
+      <c r="C21">
+        <v>153687617</v>
+      </c>
+      <c r="D21">
+        <v>449536000</v>
+      </c>
+      <c r="E21">
+        <v>0.341880554616315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>536</v>
+      </c>
+      <c r="B22">
+        <v>31.5</v>
+      </c>
+      <c r="C22">
+        <v>153641310</v>
+      </c>
+      <c r="D22">
+        <v>449536000</v>
+      </c>
+      <c r="E22">
+        <v>0.341777543956435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>537</v>
+      </c>
+      <c r="B23">
+        <v>31.5</v>
+      </c>
+      <c r="C23">
+        <v>153592626</v>
+      </c>
+      <c r="D23">
+        <v>449536000</v>
+      </c>
+      <c r="E23">
+        <v>0.34166924562215201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24">
+        <v>31.4</v>
+      </c>
+      <c r="C24">
+        <v>153488209</v>
+      </c>
+      <c r="D24">
+        <v>449536000</v>
+      </c>
+      <c r="E24">
+        <v>0.34143696834068898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>539</v>
+      </c>
+      <c r="B25">
+        <v>31.4</v>
+      </c>
+      <c r="C25">
+        <v>153465423</v>
+      </c>
+      <c r="D25">
+        <v>449536000</v>
+      </c>
+      <c r="E25">
+        <v>0.34138628052035802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>540</v>
+      </c>
+      <c r="B26">
+        <v>31.4</v>
+      </c>
+      <c r="C26">
+        <v>153412341</v>
+      </c>
+      <c r="D26">
+        <v>449536000</v>
+      </c>
+      <c r="E26">
+        <v>0.34126819876494802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>541</v>
+      </c>
+      <c r="B27">
+        <v>31.6</v>
+      </c>
+      <c r="C27">
+        <v>152781611</v>
+      </c>
+      <c r="D27">
+        <v>449536000</v>
+      </c>
+      <c r="E27">
+        <v>0.33986512982275002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>542</v>
+      </c>
+      <c r="B28">
+        <v>30.9</v>
+      </c>
+      <c r="C28">
+        <v>152178296</v>
+      </c>
+      <c r="D28">
+        <v>449536000</v>
+      </c>
+      <c r="E28">
+        <v>0.33852304598519301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>543</v>
+      </c>
+      <c r="B29">
+        <v>30.9</v>
+      </c>
+      <c r="C29">
+        <v>151682639</v>
+      </c>
+      <c r="D29">
+        <v>449536000</v>
+      </c>
+      <c r="E29">
+        <v>0.33742044908527902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>544</v>
+      </c>
+      <c r="B30">
+        <v>30.7</v>
+      </c>
+      <c r="C30">
+        <v>150406972</v>
+      </c>
+      <c r="D30">
+        <v>449536000</v>
+      </c>
+      <c r="E30">
+        <v>0.33458270750284702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>545</v>
+      </c>
+      <c r="B31">
+        <v>30.7</v>
+      </c>
+      <c r="C31">
+        <v>149990032</v>
+      </c>
+      <c r="D31">
+        <v>449536000</v>
+      </c>
+      <c r="E31">
+        <v>0.333655217824601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>546</v>
+      </c>
+      <c r="B32">
+        <v>30.5</v>
+      </c>
+      <c r="C32">
+        <v>144292660</v>
+      </c>
+      <c r="D32">
+        <v>449536000</v>
+      </c>
+      <c r="E32">
+        <v>0.32098132296412302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B33">
+        <v>30.7</v>
+      </c>
+      <c r="C33">
+        <v>143562411</v>
+      </c>
+      <c r="D33">
+        <v>449536000</v>
+      </c>
+      <c r="E33">
+        <v>0.31935687241956101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>548</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>143414007</v>
+      </c>
+      <c r="D34">
+        <v>449536000</v>
+      </c>
+      <c r="E34">
+        <v>0.31902674535520997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>549</v>
+      </c>
+      <c r="B35">
+        <v>31.2</v>
+      </c>
+      <c r="C35">
+        <v>143268359</v>
+      </c>
+      <c r="D35">
+        <v>449536000</v>
+      </c>
+      <c r="E35">
+        <v>0.31870274905680501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>550</v>
+      </c>
+      <c r="B36">
+        <v>30.9</v>
+      </c>
+      <c r="C36">
+        <v>143150127</v>
+      </c>
+      <c r="D36">
+        <v>449536000</v>
+      </c>
+      <c r="E36">
+        <v>0.31843974008755599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>551</v>
+      </c>
+      <c r="B37">
+        <v>30.9</v>
+      </c>
+      <c r="C37">
+        <v>143050700</v>
+      </c>
+      <c r="D37">
+        <v>449536000</v>
+      </c>
+      <c r="E37">
+        <v>0.31821856314065999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>552</v>
+      </c>
+      <c r="B38">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>142807562</v>
+      </c>
+      <c r="D38">
+        <v>449536000</v>
+      </c>
+      <c r="E38">
+        <v>0.31767769878274399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>553</v>
+      </c>
+      <c r="B39">
+        <v>30.5</v>
+      </c>
+      <c r="C39">
+        <v>142295404</v>
+      </c>
+      <c r="D39">
+        <v>449536000</v>
+      </c>
+      <c r="E39">
+        <v>0.31653839514521598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>554</v>
+      </c>
+      <c r="B40">
+        <v>30.9</v>
+      </c>
+      <c r="C40">
+        <v>140837024</v>
+      </c>
+      <c r="D40">
+        <v>449536000</v>
+      </c>
+      <c r="E40">
+        <v>0.31329420558086502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>555</v>
+      </c>
+      <c r="B41">
+        <v>32.6</v>
+      </c>
+      <c r="C41">
+        <v>139442327</v>
+      </c>
+      <c r="D41">
+        <v>449536000</v>
+      </c>
+      <c r="E41">
+        <v>0.31019167986546098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42">
+        <v>32.9</v>
+      </c>
+      <c r="C42">
+        <v>138169874</v>
+      </c>
+      <c r="D42">
+        <v>449536000</v>
+      </c>
+      <c r="E42">
+        <v>0.30736108787727701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>557</v>
+      </c>
+      <c r="B43">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C43">
+        <v>137329720</v>
+      </c>
+      <c r="D43">
+        <v>449536000</v>
+      </c>
+      <c r="E43">
+        <v>0.30549215190774398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B44">
+        <v>33.4</v>
+      </c>
+      <c r="C44">
+        <v>136740536</v>
+      </c>
+      <c r="D44">
+        <v>449536000</v>
+      </c>
+      <c r="E44">
+        <v>0.30418150270501099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>559</v>
+      </c>
+      <c r="B45">
+        <v>33.5</v>
+      </c>
+      <c r="C45">
+        <v>135594636</v>
+      </c>
+      <c r="D45">
+        <v>449536000</v>
+      </c>
+      <c r="E45">
+        <v>0.301632429883257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>560</v>
+      </c>
+      <c r="B46">
+        <v>33.1</v>
+      </c>
+      <c r="C46">
+        <v>134842898</v>
+      </c>
+      <c r="D46">
+        <v>449536000</v>
+      </c>
+      <c r="E46">
+        <v>0.29996017671554598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47">
+        <v>33.1</v>
+      </c>
+      <c r="C47">
+        <v>132451664</v>
+      </c>
+      <c r="D47">
+        <v>449536000</v>
+      </c>
+      <c r="E47">
+        <v>0.29464083855353002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>562</v>
+      </c>
+      <c r="B48">
+        <v>33.9</v>
+      </c>
+      <c r="C48">
+        <v>131659658</v>
+      </c>
+      <c r="D48">
+        <v>449536000</v>
+      </c>
+      <c r="E48">
+        <v>0.29287900857773302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>563</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>131135442</v>
+      </c>
+      <c r="D49">
+        <v>449536000</v>
+      </c>
+      <c r="E49">
+        <v>0.29171288172693599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>564</v>
+      </c>
+      <c r="B50">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C50">
+        <v>130749354</v>
+      </c>
+      <c r="D50">
+        <v>449536000</v>
+      </c>
+      <c r="E50">
+        <v>0.29085402281463502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>565</v>
+      </c>
+      <c r="B51">
+        <v>35.4</v>
+      </c>
+      <c r="C51">
+        <v>129470810</v>
+      </c>
+      <c r="D51">
+        <v>449536000</v>
+      </c>
+      <c r="E51">
+        <v>0.28800988129982902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>566</v>
+      </c>
+      <c r="B52">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="C52">
+        <v>128158574</v>
+      </c>
+      <c r="D52">
+        <v>449536000</v>
+      </c>
+      <c r="E52">
+        <v>0.28509079139379201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>567</v>
+      </c>
+      <c r="B53">
+        <v>36.6</v>
+      </c>
+      <c r="C53">
+        <v>127163861</v>
+      </c>
+      <c r="D53">
+        <v>449536000</v>
+      </c>
+      <c r="E53">
+        <v>0.28287803646426501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>568</v>
+      </c>
+      <c r="B54">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C54">
+        <v>126649694</v>
+      </c>
+      <c r="D54">
+        <v>449536000</v>
+      </c>
+      <c r="E54">
+        <v>0.28173426377420202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>569</v>
+      </c>
+      <c r="B55">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>124891556</v>
+      </c>
+      <c r="D55">
+        <v>449536000</v>
+      </c>
+      <c r="E55">
+        <v>0.27782325775911099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>570</v>
+      </c>
+      <c r="B56">
+        <v>36.6</v>
+      </c>
+      <c r="C56">
+        <v>124392535</v>
+      </c>
+      <c r="D56">
+        <v>449536000</v>
+      </c>
+      <c r="E56">
+        <v>0.27671317758755598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>571</v>
+      </c>
+      <c r="B57">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C57">
+        <v>118405337</v>
+      </c>
+      <c r="D57">
+        <v>449536000</v>
+      </c>
+      <c r="E57">
+        <v>0.26339456016870699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>572</v>
+      </c>
+      <c r="B58">
+        <v>36.4</v>
+      </c>
+      <c r="C58">
+        <v>117402903</v>
+      </c>
+      <c r="D58">
+        <v>449536000</v>
+      </c>
+      <c r="E58">
+        <v>0.26116462975156601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>573</v>
+      </c>
+      <c r="B59">
+        <v>36.5</v>
+      </c>
+      <c r="C59">
+        <v>117259988</v>
+      </c>
+      <c r="D59">
+        <v>449536000</v>
+      </c>
+      <c r="E59">
+        <v>0.26084671305523899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>574</v>
+      </c>
+      <c r="B60">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C60">
+        <v>117164122</v>
+      </c>
+      <c r="D60">
+        <v>449536000</v>
+      </c>
+      <c r="E60">
+        <v>0.26063345760962398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>575</v>
+      </c>
+      <c r="B61">
+        <v>36.1</v>
+      </c>
+      <c r="C61">
+        <v>117040946</v>
+      </c>
+      <c r="D61">
+        <v>449536000</v>
+      </c>
+      <c r="E61">
+        <v>0.26035945063354199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>576</v>
+      </c>
+      <c r="B62">
+        <v>35.9</v>
+      </c>
+      <c r="C62">
+        <v>116632597</v>
+      </c>
+      <c r="D62">
+        <v>449536000</v>
+      </c>
+      <c r="E62">
+        <v>0.259451071771782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>577</v>
+      </c>
+      <c r="B63">
+        <v>35.9</v>
+      </c>
+      <c r="C63">
+        <v>116433025</v>
+      </c>
+      <c r="D63">
+        <v>449536000</v>
+      </c>
+      <c r="E63">
+        <v>0.25900712067554099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>578</v>
+      </c>
+      <c r="B64">
+        <v>35.9</v>
+      </c>
+      <c r="C64">
+        <v>116306484</v>
+      </c>
+      <c r="D64">
+        <v>449536000</v>
+      </c>
+      <c r="E64">
+        <v>0.25872562820330203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>579</v>
+      </c>
+      <c r="B65">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C65">
+        <v>116150351</v>
+      </c>
+      <c r="D65">
+        <v>449536000</v>
+      </c>
+      <c r="E65">
+        <v>0.25837830785520999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>580</v>
+      </c>
+      <c r="B66">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C66">
+        <v>116062782</v>
+      </c>
+      <c r="D66">
+        <v>449536000</v>
+      </c>
+      <c r="E66">
+        <v>0.258183509218394</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>581</v>
+      </c>
+      <c r="B67">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C67">
+        <v>115880816</v>
+      </c>
+      <c r="D67">
+        <v>449536000</v>
+      </c>
+      <c r="E67">
+        <v>0.25777872294988602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>582</v>
+      </c>
+      <c r="B68">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C68">
+        <v>115581859</v>
+      </c>
+      <c r="D68">
+        <v>449536000</v>
+      </c>
+      <c r="E68">
+        <v>0.25711368833641801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>583</v>
+      </c>
+      <c r="B69">
+        <v>35.9</v>
+      </c>
+      <c r="C69">
+        <v>115046330</v>
+      </c>
+      <c r="D69">
+        <v>449536000</v>
+      </c>
+      <c r="E69">
+        <v>0.25592239553673102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>584</v>
+      </c>
+      <c r="B70">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C70">
+        <v>114676629</v>
+      </c>
+      <c r="D70">
+        <v>449536000</v>
+      </c>
+      <c r="E70">
+        <v>0.25509998976722598</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>585</v>
+      </c>
+      <c r="B71">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C71">
+        <v>114230088</v>
+      </c>
+      <c r="D71">
+        <v>449536000</v>
+      </c>
+      <c r="E71">
+        <v>0.25410665219248202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>586</v>
+      </c>
+      <c r="B72">
+        <v>36.1</v>
+      </c>
+      <c r="C72">
+        <v>113740916</v>
+      </c>
+      <c r="D72">
+        <v>449536000</v>
+      </c>
+      <c r="E72">
+        <v>0.25301848127847298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>587</v>
+      </c>
+      <c r="B73">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C73">
+        <v>112201806</v>
+      </c>
+      <c r="D73">
+        <v>449536000</v>
+      </c>
+      <c r="E73">
+        <v>0.249594706541856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>588</v>
+      </c>
+      <c r="B74">
+        <v>36.4</v>
+      </c>
+      <c r="C74">
+        <v>111932334</v>
+      </c>
+      <c r="D74">
+        <v>449536000</v>
+      </c>
+      <c r="E74">
+        <v>0.24899526178103601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>589</v>
+      </c>
+      <c r="B75">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C75">
+        <v>111837925</v>
+      </c>
+      <c r="D75">
+        <v>449536000</v>
+      </c>
+      <c r="E75">
+        <v>0.24878524745515301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>590</v>
+      </c>
+      <c r="B76">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C76">
+        <v>111710223</v>
+      </c>
+      <c r="D76">
+        <v>449536000</v>
+      </c>
+      <c r="E76">
+        <v>0.24850117231990301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>591</v>
+      </c>
+      <c r="B77">
+        <v>38.9</v>
+      </c>
+      <c r="C77">
+        <v>111062280</v>
+      </c>
+      <c r="D77">
+        <v>449536000</v>
+      </c>
+      <c r="E77">
+        <v>0.24705981278473799</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>592</v>
+      </c>
+      <c r="B78">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="C78">
+        <v>110692644</v>
+      </c>
+      <c r="D78">
+        <v>449536000</v>
+      </c>
+      <c r="E78">
+        <v>0.24623755160876901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>593</v>
+      </c>
+      <c r="B79">
+        <v>41.2</v>
+      </c>
+      <c r="C79">
+        <v>110033503</v>
+      </c>
+      <c r="D79">
+        <v>449536000</v>
+      </c>
+      <c r="E79">
+        <v>0.24477128194404801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>594</v>
+      </c>
+      <c r="B80">
+        <v>41</v>
+      </c>
+      <c r="C80">
+        <v>109816250</v>
+      </c>
+      <c r="D80">
+        <v>449536000</v>
+      </c>
+      <c r="E80">
+        <v>0.244287999181378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>595</v>
+      </c>
+      <c r="B81">
+        <v>43</v>
+      </c>
+      <c r="C81">
+        <v>109230353</v>
+      </c>
+      <c r="D81">
+        <v>449536000</v>
+      </c>
+      <c r="E81">
+        <v>0.242984661962556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>596</v>
+      </c>
+      <c r="B82">
+        <v>42.5</v>
+      </c>
+      <c r="C82">
+        <v>107868090</v>
+      </c>
+      <c r="D82">
+        <v>449536000</v>
+      </c>
+      <c r="E82">
+        <v>0.23995428619732301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>597</v>
+      </c>
+      <c r="B83">
+        <v>43.9</v>
+      </c>
+      <c r="C83">
+        <v>107210310</v>
+      </c>
+      <c r="D83">
+        <v>449536000</v>
+      </c>
+      <c r="E83">
+        <v>0.23849104409880401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>598</v>
+      </c>
+      <c r="B84">
+        <v>45.6</v>
+      </c>
+      <c r="C84">
+        <v>105048731</v>
+      </c>
+      <c r="D84">
+        <v>449536000</v>
+      </c>
+      <c r="E84">
+        <v>0.23368257714621299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>599</v>
+      </c>
+      <c r="B85">
+        <v>45</v>
+      </c>
+      <c r="C85">
+        <v>104549199</v>
+      </c>
+      <c r="D85">
+        <v>449536000</v>
+      </c>
+      <c r="E85">
+        <v>0.23257136024701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>600</v>
+      </c>
+      <c r="B86">
+        <v>44.8</v>
+      </c>
+      <c r="C86">
+        <v>104097851</v>
+      </c>
+      <c r="D86">
+        <v>449536000</v>
+      </c>
+      <c r="E86">
+        <v>0.23156732942411701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>601</v>
+      </c>
+      <c r="B87">
+        <v>44.3</v>
+      </c>
+      <c r="C87">
+        <v>103071190</v>
+      </c>
+      <c r="D87">
+        <v>449536000</v>
+      </c>
+      <c r="E87">
+        <v>0.229283505659168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>602</v>
+      </c>
+      <c r="B88">
+        <v>43.9</v>
+      </c>
+      <c r="C88">
+        <v>102532793</v>
+      </c>
+      <c r="D88">
+        <v>449536000</v>
+      </c>
+      <c r="E88">
+        <v>0.22808583294775001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>603</v>
+      </c>
+      <c r="B89">
+        <v>43.6</v>
+      </c>
+      <c r="C89">
+        <v>97243035</v>
+      </c>
+      <c r="D89">
+        <v>449536000</v>
+      </c>
+      <c r="E89">
+        <v>0.21631868192981199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>604</v>
+      </c>
+      <c r="B90">
+        <v>43.4</v>
+      </c>
+      <c r="C90">
+        <v>96747729</v>
+      </c>
+      <c r="D90">
+        <v>449536000</v>
+      </c>
+      <c r="E90">
+        <v>0.215216865834994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>605</v>
+      </c>
+      <c r="B91">
+        <v>43.2</v>
+      </c>
+      <c r="C91">
+        <v>96622253</v>
+      </c>
+      <c r="D91">
+        <v>449536000</v>
+      </c>
+      <c r="E91">
+        <v>0.21493774247223801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>606</v>
+      </c>
+      <c r="B92">
+        <v>43</v>
+      </c>
+      <c r="C92">
+        <v>96541104</v>
+      </c>
+      <c r="D92">
+        <v>449536000</v>
+      </c>
+      <c r="E92">
+        <v>0.21475722522779001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>607</v>
+      </c>
+      <c r="B93">
+        <v>42.5</v>
+      </c>
+      <c r="C93">
+        <v>96438798</v>
+      </c>
+      <c r="D93">
+        <v>449536000</v>
+      </c>
+      <c r="E93">
+        <v>0.214529643899487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>608</v>
+      </c>
+      <c r="B94">
+        <v>42.8</v>
+      </c>
+      <c r="C94">
+        <v>96331197</v>
+      </c>
+      <c r="D94">
+        <v>449536000</v>
+      </c>
+      <c r="E94">
+        <v>0.21429028375925399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>609</v>
+      </c>
+      <c r="B95">
+        <v>42.2</v>
+      </c>
+      <c r="C95">
+        <v>96154017</v>
+      </c>
+      <c r="D95">
+        <v>449536000</v>
+      </c>
+      <c r="E95">
+        <v>0.21389614402405999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>610</v>
+      </c>
+      <c r="B96">
+        <v>42.2</v>
+      </c>
+      <c r="C96">
+        <v>95721214</v>
+      </c>
+      <c r="D96">
+        <v>449536000</v>
+      </c>
+      <c r="E96">
+        <v>0.212933366849373</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>611</v>
+      </c>
+      <c r="B97">
+        <v>42.7</v>
+      </c>
+      <c r="C97">
+        <v>92267630</v>
+      </c>
+      <c r="D97">
+        <v>449536000</v>
+      </c>
+      <c r="E97">
+        <v>0.205250814172836</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>612</v>
+      </c>
+      <c r="B98">
+        <v>42.7</v>
+      </c>
+      <c r="C98">
+        <v>91161452</v>
+      </c>
+      <c r="D98">
+        <v>449536000</v>
+      </c>
+      <c r="E98">
+        <v>0.202790103573462</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>613</v>
+      </c>
+      <c r="B99">
+        <v>43.3</v>
+      </c>
+      <c r="C99">
+        <v>90935932</v>
+      </c>
+      <c r="D99">
+        <v>449536000</v>
+      </c>
+      <c r="E99">
+        <v>0.20228843073747099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>614</v>
+      </c>
+      <c r="B100">
+        <v>43.8</v>
+      </c>
+      <c r="C100">
+        <v>90785106</v>
+      </c>
+      <c r="D100">
+        <v>449536000</v>
+      </c>
+      <c r="E100">
+        <v>0.20195291589550099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>615</v>
+      </c>
+      <c r="B101">
+        <v>44.5</v>
+      </c>
+      <c r="C101">
+        <v>90654285</v>
+      </c>
+      <c r="D101">
+        <v>449536000</v>
+      </c>
+      <c r="E101">
+        <v>0.201661902495017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>616</v>
+      </c>
+      <c r="B102">
+        <v>44.6</v>
+      </c>
+      <c r="C102">
+        <v>90478439</v>
+      </c>
+      <c r="D102">
+        <v>449536000</v>
+      </c>
+      <c r="E102">
+        <v>0.20127073026409401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>617</v>
+      </c>
+      <c r="B103">
+        <v>44.8</v>
+      </c>
+      <c r="C103">
+        <v>90431787</v>
+      </c>
+      <c r="D103">
+        <v>449536000</v>
+      </c>
+      <c r="E103">
+        <v>0.201166952146213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>618</v>
+      </c>
+      <c r="B104">
+        <v>44.9</v>
+      </c>
+      <c r="C104">
+        <v>90333713</v>
+      </c>
+      <c r="D104">
+        <v>449536000</v>
+      </c>
+      <c r="E104">
+        <v>0.20094878496939</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>619</v>
+      </c>
+      <c r="B105">
+        <v>45.9</v>
+      </c>
+      <c r="C105">
+        <v>88789111</v>
+      </c>
+      <c r="D105">
+        <v>449536000</v>
+      </c>
+      <c r="E105">
+        <v>0.19751279319120099</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>620</v>
+      </c>
+      <c r="B106">
+        <v>45.8</v>
+      </c>
+      <c r="C106">
+        <v>88036961</v>
+      </c>
+      <c r="D106">
+        <v>449536000</v>
+      </c>
+      <c r="E106">
+        <v>0.195839623522921</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>621</v>
+      </c>
+      <c r="B107">
+        <v>49.6</v>
+      </c>
+      <c r="C107">
+        <v>85935068</v>
+      </c>
+      <c r="D107">
+        <v>449536000</v>
+      </c>
+      <c r="E107">
+        <v>0.191163929029043</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>622</v>
+      </c>
+      <c r="B108">
+        <v>50</v>
+      </c>
+      <c r="C108">
+        <v>85355371</v>
+      </c>
+      <c r="D108">
+        <v>449536000</v>
+      </c>
+      <c r="E108">
+        <v>0.189874383809083</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>623</v>
+      </c>
+      <c r="B109">
+        <v>49</v>
+      </c>
+      <c r="C109">
+        <v>85086527</v>
+      </c>
+      <c r="D109">
+        <v>449536000</v>
+      </c>
+      <c r="E109">
+        <v>0.18927633604427599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110">
+        <v>49.2</v>
+      </c>
+      <c r="C110">
+        <v>85002775</v>
+      </c>
+      <c r="D110">
+        <v>449536000</v>
+      </c>
+      <c r="E110">
+        <v>0.189090028384823</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>625</v>
+      </c>
+      <c r="B111">
+        <v>49.7</v>
+      </c>
+      <c r="C111">
+        <v>84789351</v>
+      </c>
+      <c r="D111">
+        <v>449536000</v>
+      </c>
+      <c r="E111">
+        <v>0.18861526329370701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>626</v>
+      </c>
+      <c r="B112">
+        <v>49.4</v>
+      </c>
+      <c r="C112">
+        <v>84604994</v>
+      </c>
+      <c r="D112">
+        <v>449536000</v>
+      </c>
+      <c r="E112">
+        <v>0.188205158207574</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>627</v>
+      </c>
+      <c r="B113">
+        <v>49.7</v>
+      </c>
+      <c r="C113">
+        <v>84512024</v>
+      </c>
+      <c r="D113">
+        <v>449536000</v>
+      </c>
+      <c r="E113">
+        <v>0.18799834496013601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114">
+        <v>49.7</v>
+      </c>
+      <c r="C114">
+        <v>84301192</v>
+      </c>
+      <c r="D114">
+        <v>449536000</v>
+      </c>
+      <c r="E114">
+        <v>0.18752934581434999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>629</v>
+      </c>
+      <c r="B115">
+        <v>49.9</v>
+      </c>
+      <c r="C115">
+        <v>84108960</v>
+      </c>
+      <c r="D115">
+        <v>449536000</v>
+      </c>
+      <c r="E115">
+        <v>0.18710172266514799</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>630</v>
+      </c>
+      <c r="B116">
+        <v>51</v>
+      </c>
+      <c r="C116">
+        <v>83986766</v>
+      </c>
+      <c r="D116">
+        <v>449536000</v>
+      </c>
+      <c r="E116">
+        <v>0.186829900163724</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>631</v>
+      </c>
+      <c r="B117">
+        <v>52.3</v>
+      </c>
+      <c r="C117">
+        <v>83877105</v>
+      </c>
+      <c r="D117">
+        <v>449536000</v>
+      </c>
+      <c r="E117">
+        <v>0.186585957520643</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>632</v>
+      </c>
+      <c r="B118">
+        <v>52.8</v>
+      </c>
+      <c r="C118">
+        <v>83802685</v>
+      </c>
+      <c r="D118">
+        <v>449536000</v>
+      </c>
+      <c r="E118">
+        <v>0.18642040904399201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>633</v>
+      </c>
+      <c r="B119">
+        <v>52.4</v>
+      </c>
+      <c r="C119">
+        <v>83639101</v>
+      </c>
+      <c r="D119">
+        <v>449536000</v>
+      </c>
+      <c r="E119">
+        <v>0.186056513827591</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>634</v>
+      </c>
+      <c r="B120">
+        <v>57.3</v>
+      </c>
+      <c r="C120">
+        <v>83423545</v>
+      </c>
+      <c r="D120">
+        <v>449536000</v>
+      </c>
+      <c r="E120">
+        <v>0.18557700606847899</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>635</v>
+      </c>
+      <c r="B121">
+        <v>59.9</v>
+      </c>
+      <c r="C121">
+        <v>83258013</v>
+      </c>
+      <c r="D121">
+        <v>449536000</v>
+      </c>
+      <c r="E121">
+        <v>0.18520877749501699</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>636</v>
+      </c>
+      <c r="B122">
+        <v>60.6</v>
+      </c>
+      <c r="C122">
+        <v>83118963</v>
+      </c>
+      <c r="D122">
+        <v>449536000</v>
+      </c>
+      <c r="E122">
+        <v>0.184899458552818</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>637</v>
+      </c>
+      <c r="B123">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C123">
+        <v>82740552</v>
+      </c>
+      <c r="D123">
+        <v>449536000</v>
+      </c>
+      <c r="E123">
+        <v>0.18405767724943001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>638</v>
+      </c>
+      <c r="B124">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C124">
+        <v>82535514</v>
+      </c>
+      <c r="D124">
+        <v>449536000</v>
+      </c>
+      <c r="E124">
+        <v>0.18360156694903099</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>639</v>
+      </c>
+      <c r="B125">
+        <v>70.8</v>
+      </c>
+      <c r="C125">
+        <v>82340439</v>
+      </c>
+      <c r="D125">
+        <v>449536000</v>
+      </c>
+      <c r="E125">
+        <v>0.183167619500996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>640</v>
+      </c>
+      <c r="B126">
+        <v>71.7</v>
+      </c>
+      <c r="C126">
+        <v>82210719</v>
+      </c>
+      <c r="D126">
+        <v>449536000</v>
+      </c>
+      <c r="E126">
+        <v>0.18287905529256801</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>641</v>
+      </c>
+      <c r="B127">
+        <v>72.5</v>
+      </c>
+      <c r="C127">
+        <v>81989006</v>
+      </c>
+      <c r="D127">
+        <v>449536000</v>
+      </c>
+      <c r="E127">
+        <v>0.18238585118878101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>642</v>
+      </c>
+      <c r="B128">
+        <v>74.2</v>
+      </c>
+      <c r="C128">
+        <v>81533253</v>
+      </c>
+      <c r="D128">
+        <v>449536000</v>
+      </c>
+      <c r="E128">
+        <v>0.18137202137314901</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>643</v>
+      </c>
+      <c r="B129">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C129">
+        <v>81417942</v>
+      </c>
+      <c r="D129">
+        <v>449536000</v>
+      </c>
+      <c r="E129">
+        <v>0.18111551021497699</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>644</v>
+      </c>
+      <c r="B130">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C130">
+        <v>81257839</v>
+      </c>
+      <c r="D130">
+        <v>449536000</v>
+      </c>
+      <c r="E130">
+        <v>0.18075935853858199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>645</v>
+      </c>
+      <c r="B131">
+        <v>78.2</v>
+      </c>
+      <c r="C131">
+        <v>81158505</v>
+      </c>
+      <c r="D131">
+        <v>449536000</v>
+      </c>
+      <c r="E131">
+        <v>0.180538388471668</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>646</v>
+      </c>
+      <c r="B132">
+        <v>79.7</v>
+      </c>
+      <c r="C132">
+        <v>81001499</v>
+      </c>
+      <c r="D132">
+        <v>449536000</v>
+      </c>
+      <c r="E132">
+        <v>0.18018912612115601</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>647</v>
+      </c>
+      <c r="B133">
+        <v>79.5</v>
+      </c>
+      <c r="C133">
+        <v>80955205</v>
+      </c>
+      <c r="D133">
+        <v>449536000</v>
+      </c>
+      <c r="E133">
+        <v>0.18008614437998199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>648</v>
+      </c>
+      <c r="B134">
+        <v>80</v>
+      </c>
+      <c r="C134">
+        <v>80697034</v>
+      </c>
+      <c r="D134">
+        <v>449536000</v>
+      </c>
+      <c r="E134">
+        <v>0.17951183887386099</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>649</v>
+      </c>
+      <c r="B135">
+        <v>80.8</v>
+      </c>
+      <c r="C135">
+        <v>80357825</v>
+      </c>
+      <c r="D135">
+        <v>449536000</v>
+      </c>
+      <c r="E135">
+        <v>0.17875726304456099</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>650</v>
+      </c>
+      <c r="B136">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C136">
+        <v>77957265</v>
+      </c>
+      <c r="D136">
+        <v>449536000</v>
+      </c>
+      <c r="E136">
+        <v>0.17341717904683901</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>651</v>
+      </c>
+      <c r="B137">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C137">
+        <v>77535988</v>
+      </c>
+      <c r="D137">
+        <v>449536000</v>
+      </c>
+      <c r="E137">
+        <v>0.17248004164293801</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>652</v>
+      </c>
+      <c r="B138">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C138">
+        <v>77453481</v>
+      </c>
+      <c r="D138">
+        <v>449536000</v>
+      </c>
+      <c r="E138">
+        <v>0.172296503505837</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>653</v>
+      </c>
+      <c r="B139">
+        <v>84.1</v>
+      </c>
+      <c r="C139">
+        <v>77167348</v>
+      </c>
+      <c r="D139">
+        <v>449536000</v>
+      </c>
+      <c r="E139">
+        <v>0.171659996084851</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>654</v>
+      </c>
+      <c r="B140">
+        <v>84.8</v>
+      </c>
+      <c r="C140">
+        <v>76798455</v>
+      </c>
+      <c r="D140">
+        <v>449536000</v>
+      </c>
+      <c r="E140">
+        <v>0.17083938772423099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>655</v>
+      </c>
+      <c r="B141">
+        <v>87.2</v>
+      </c>
+      <c r="C141">
+        <v>76450930</v>
+      </c>
+      <c r="D141">
+        <v>449536000</v>
+      </c>
+      <c r="E141">
+        <v>0.17006631282033</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>656</v>
+      </c>
+      <c r="B142">
+        <v>85.4</v>
+      </c>
+      <c r="C142">
+        <v>75882940</v>
+      </c>
+      <c r="D142">
+        <v>449536000</v>
+      </c>
+      <c r="E142">
+        <v>0.168802810008542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>657</v>
+      </c>
+      <c r="B143">
+        <v>86.4</v>
+      </c>
+      <c r="C143">
+        <v>75638664</v>
+      </c>
+      <c r="D143">
+        <v>449536000</v>
+      </c>
+      <c r="E143">
+        <v>0.16825941415147999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>658</v>
+      </c>
+      <c r="B144">
+        <v>87</v>
+      </c>
+      <c r="C144">
+        <v>75412101</v>
+      </c>
+      <c r="D144">
+        <v>449536000</v>
+      </c>
+      <c r="E144">
+        <v>0.16775542114535799</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>659</v>
+      </c>
+      <c r="B145">
+        <v>87.6</v>
+      </c>
+      <c r="C145">
+        <v>75313599</v>
+      </c>
+      <c r="D145">
+        <v>449536000</v>
+      </c>
+      <c r="E145">
+        <v>0.167536301875711</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>660</v>
+      </c>
+      <c r="B146">
+        <v>88.3</v>
+      </c>
+      <c r="C146">
+        <v>75145267</v>
+      </c>
+      <c r="D146">
+        <v>449536000</v>
+      </c>
+      <c r="E146">
+        <v>0.167161844657602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>661</v>
+      </c>
+      <c r="B147">
+        <v>87.8</v>
+      </c>
+      <c r="C147">
+        <v>74824539</v>
+      </c>
+      <c r="D147">
+        <v>449536000</v>
+      </c>
+      <c r="E147">
+        <v>0.166448380107488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>662</v>
+      </c>
+      <c r="B148">
+        <v>96</v>
+      </c>
+      <c r="C148">
+        <v>74295774</v>
+      </c>
+      <c r="D148">
+        <v>449536000</v>
+      </c>
+      <c r="E148">
+        <v>0.165272133933656</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>663</v>
+      </c>
+      <c r="B149">
+        <v>97.3</v>
+      </c>
+      <c r="C149">
+        <v>73912967</v>
+      </c>
+      <c r="D149">
+        <v>449536000</v>
+      </c>
+      <c r="E149">
+        <v>0.164420573658171</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>664</v>
+      </c>
+      <c r="B150">
+        <v>97.1</v>
+      </c>
+      <c r="C150">
+        <v>73250478</v>
+      </c>
+      <c r="D150">
+        <v>449536000</v>
+      </c>
+      <c r="E150">
+        <v>0.162946856314066</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>665</v>
+      </c>
+      <c r="B151">
+        <v>98</v>
+      </c>
+      <c r="C151">
+        <v>73115313</v>
+      </c>
+      <c r="D151">
+        <v>449536000</v>
+      </c>
+      <c r="E151">
+        <v>0.162646179616315</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>666</v>
+      </c>
+      <c r="B152">
+        <v>98.1</v>
+      </c>
+      <c r="C152">
+        <v>72834158</v>
+      </c>
+      <c r="D152">
+        <v>449536000</v>
+      </c>
+      <c r="E152">
+        <v>0.162020745835706</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>667</v>
+      </c>
+      <c r="B153">
+        <v>98.4</v>
+      </c>
+      <c r="C153">
+        <v>72697467</v>
+      </c>
+      <c r="D153">
+        <v>449536000</v>
+      </c>
+      <c r="E153">
+        <v>0.161716674526623</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>668</v>
+      </c>
+      <c r="B154">
+        <v>98.4</v>
+      </c>
+      <c r="C154">
+        <v>72461824</v>
+      </c>
+      <c r="D154">
+        <v>449536000</v>
+      </c>
+      <c r="E154">
+        <v>0.161192482915717</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>669</v>
+      </c>
+      <c r="B155">
+        <v>98.4</v>
+      </c>
+      <c r="C155">
+        <v>72335001</v>
+      </c>
+      <c r="D155">
+        <v>449536000</v>
+      </c>
+      <c r="E155">
+        <v>0.160910363129982</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>670</v>
+      </c>
+      <c r="B156">
+        <v>98.4</v>
+      </c>
+      <c r="C156">
+        <v>72226405</v>
+      </c>
+      <c r="D156">
+        <v>449536000</v>
+      </c>
+      <c r="E156">
+        <v>0.160668789596383</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>671</v>
+      </c>
+      <c r="B157">
+        <v>98.4</v>
+      </c>
+      <c r="C157">
+        <v>72048540</v>
+      </c>
+      <c r="D157">
+        <v>449536000</v>
+      </c>
+      <c r="E157">
+        <v>0.160273126067767</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>672</v>
+      </c>
+      <c r="B158">
+        <v>98.8</v>
+      </c>
+      <c r="C158">
+        <v>71793081</v>
+      </c>
+      <c r="D158">
+        <v>449536000</v>
+      </c>
+      <c r="E158">
+        <v>0.15970485344888899</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>673</v>
+      </c>
+      <c r="B159">
+        <v>98.6</v>
+      </c>
+      <c r="C159">
+        <v>71634936</v>
+      </c>
+      <c r="D159">
+        <v>449536000</v>
+      </c>
+      <c r="E159">
+        <v>0.159353057374715</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>674</v>
+      </c>
+      <c r="B160">
+        <v>98.6</v>
+      </c>
+      <c r="C160">
+        <v>71563348</v>
+      </c>
+      <c r="D160">
+        <v>449536000</v>
+      </c>
+      <c r="E160">
+        <v>0.15919380872722</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>675</v>
+      </c>
+      <c r="B161">
+        <v>98.7</v>
+      </c>
+      <c r="C161">
+        <v>71430082</v>
+      </c>
+      <c r="D161">
+        <v>449536000</v>
+      </c>
+      <c r="E161">
+        <v>0.15889735638524999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>676</v>
+      </c>
+      <c r="B162">
+        <v>98.7</v>
+      </c>
+      <c r="C162">
+        <v>71316339</v>
+      </c>
+      <c r="D162">
+        <v>449536000</v>
+      </c>
+      <c r="E162">
+        <v>0.15864433326808</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>677</v>
+      </c>
+      <c r="B163">
+        <v>98.8</v>
+      </c>
+      <c r="C163">
+        <v>71221636</v>
+      </c>
+      <c r="D163">
+        <v>449536000</v>
+      </c>
+      <c r="E163">
+        <v>0.15843366493451</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>678</v>
+      </c>
+      <c r="B164">
+        <v>98.7</v>
+      </c>
+      <c r="C164">
+        <v>71120556</v>
+      </c>
+      <c r="D164">
+        <v>449536000</v>
+      </c>
+      <c r="E164">
+        <v>0.15820881086275601</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>679</v>
+      </c>
+      <c r="B165">
+        <v>98.7</v>
+      </c>
+      <c r="C165">
+        <v>70880892</v>
+      </c>
+      <c r="D165">
+        <v>449536000</v>
+      </c>
+      <c r="E165">
+        <v>0.157675674473234</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>680</v>
+      </c>
+      <c r="B166">
+        <v>98.7</v>
+      </c>
+      <c r="C166">
+        <v>69974342</v>
+      </c>
+      <c r="D166">
+        <v>449536000</v>
+      </c>
+      <c r="E166">
+        <v>0.15565903954299501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>681</v>
+      </c>
+      <c r="B167">
+        <v>98.7</v>
+      </c>
+      <c r="C167">
+        <v>69036484</v>
+      </c>
+      <c r="D167">
+        <v>449536000</v>
+      </c>
+      <c r="E167">
+        <v>0.15357275946753901</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>682</v>
+      </c>
+      <c r="B168">
+        <v>98.7</v>
+      </c>
+      <c r="C168">
+        <v>68377032</v>
+      </c>
+      <c r="D168">
+        <v>449536000</v>
+      </c>
+      <c r="E168">
+        <v>0.15210579797835899</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>683</v>
+      </c>
+      <c r="B169">
+        <v>98.7</v>
+      </c>
+      <c r="C169">
+        <v>67907774</v>
+      </c>
+      <c r="D169">
+        <v>449536000</v>
+      </c>
+      <c r="E169">
+        <v>0.151061926074886</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>684</v>
+      </c>
+      <c r="B170">
+        <v>98.7</v>
+      </c>
+      <c r="C170">
+        <v>66393798</v>
+      </c>
+      <c r="D170">
+        <v>449536000</v>
+      </c>
+      <c r="E170">
+        <v>0.14769406232203799</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>685</v>
+      </c>
+      <c r="B171">
+        <v>98.7</v>
+      </c>
+      <c r="C171">
+        <v>63881306</v>
+      </c>
+      <c r="D171">
+        <v>449536000</v>
+      </c>
+      <c r="E171">
+        <v>0.142104983805523</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>686</v>
+      </c>
+      <c r="B172">
+        <v>98.6</v>
+      </c>
+      <c r="C172">
+        <v>59614354</v>
+      </c>
+      <c r="D172">
+        <v>449536000</v>
+      </c>
+      <c r="E172">
+        <v>0.13261308104356401</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>687</v>
+      </c>
+      <c r="B173">
+        <v>98.6</v>
+      </c>
+      <c r="C173">
+        <v>55935864</v>
+      </c>
+      <c r="D173">
+        <v>449536000</v>
+      </c>
+      <c r="E173">
+        <v>0.12443022138382601</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>688</v>
+      </c>
+      <c r="B174">
+        <v>98.6</v>
+      </c>
+      <c r="C174">
+        <v>45033666</v>
+      </c>
+      <c r="D174">
+        <v>449536000</v>
+      </c>
+      <c r="E174">
+        <v>0.100178108093678</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>689</v>
+      </c>
+      <c r="B175">
+        <v>98.6</v>
+      </c>
+      <c r="C175">
+        <v>34918870</v>
+      </c>
+      <c r="D175">
+        <v>449536000</v>
+      </c>
+      <c r="E175">
+        <v>7.7677583107915699E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E180"/>
   <sheetViews>
@@ -10800,7 +15515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E160"/>
   <sheetViews>
@@ -13535,7 +18250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E165"/>
   <sheetViews>

--- a/doc/Results/Resnet18_MNIST_PS2.xlsx
+++ b/doc/Results/Resnet18_MNIST_PS2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inna\OneDrive - Technion\Technion\Sem. 9\Proj2\doc\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idoim\Desktop\Course\Project 2\doc\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Uniform Patch" sheetId="4" r:id="rId4"/>
     <sheet name="Uniform Layer" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2103,7 +2103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2153,7 +2153,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2321,6 +2321,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D37F-4C83-95C4-5B337881BF1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2415,6 +2420,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D37F-4C83-95C4-5B337881BF1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2509,6 +2519,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D37F-4C83-95C4-5B337881BF1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2603,6 +2618,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D37F-4C83-95C4-5B337881BF1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2692,6 +2712,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D37F-4C83-95C4-5B337881BF1B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3027,7 +3052,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3047,22 +3072,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Layer Quantizer Optimization</a:t>
             </a:r>
           </a:p>
@@ -3071,14 +3100,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>ResNet18, MNIST, Patch Size = 2</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3103,13 +3127,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3140,13 +3170,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -4214,6 +4250,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90CE-49C5-8CB0-10EF2F7CA87D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -4230,13 +4271,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -5214,6 +5261,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-90CE-49C5-8CB0-10EF2F7CA87D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5230,13 +5282,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -6334,6 +6392,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-90CE-49C5-8CB0-10EF2F7CA87D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6350,13 +6413,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7364,6 +7433,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-90CE-49C5-8CB0-10EF2F7CA87D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7380,14 +7454,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -7400,11 +7479,12 @@
             <c:val val="100"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -7418,11 +7498,12 @@
             <c:val val="500"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
@@ -7453,6 +7534,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-90CE-49C5-8CB0-10EF2F7CA87D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7478,9 +7564,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7495,11 +7581,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -7528,11 +7613,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -7552,12 +7636,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7568,9 +7650,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -7598,9 +7679,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -7615,11 +7696,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -7629,13 +7709,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Operations</a:t>
+                  <a:t>Operations Saved</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Saved</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7653,11 +7728,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -7677,12 +7751,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7693,9 +7765,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -7719,7 +7790,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7736,9 +7807,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -7755,17 +7825,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -8384,62 +8465,66 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -8448,9 +8533,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8469,14 +8553,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -8485,20 +8561,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8507,13 +8583,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8525,30 +8601,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8564,21 +8641,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8597,14 +8671,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8616,14 +8689,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8637,9 +8710,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8653,12 +8725,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -8670,9 +8736,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8687,14 +8753,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8706,14 +8771,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8725,14 +8790,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8741,14 +8805,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8756,7 +8819,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8769,11 +8832,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -8781,14 +8852,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8800,12 +8871,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8821,7 +8899,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8830,9 +8908,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8848,14 +8925,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8864,20 +8940,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8889,12 +8962,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8941,10 +9008,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9233,20 +9300,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="F17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>504</v>
       </c>
@@ -9254,7 +9321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>505</v>
       </c>
@@ -9265,7 +9332,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>508</v>
       </c>
@@ -9273,7 +9340,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>509</v>
       </c>
@@ -9284,7 +9351,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>511</v>
       </c>
@@ -9292,7 +9359,7 @@
         <v>0.1676</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>512</v>
       </c>
@@ -9301,7 +9368,7 @@
         <v>1.2000000000000028</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>513</v>
       </c>
@@ -9318,7 +9385,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9339,7 +9406,7 @@
         <v>0.1342363593</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.5</v>
       </c>
@@ -9360,7 +9427,7 @@
         <v>0.14700174399999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -9381,7 +9448,7 @@
         <v>0.15692124769999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.2</v>
       </c>
@@ -9402,7 +9469,7 @@
         <v>0.1589479463</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9423,7 +9490,7 @@
         <v>0.1589479463</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.5</v>
       </c>
@@ -9458,9 +9525,9 @@
       <selection sqref="A1:E175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9477,7 +9544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9494,7 +9561,7 @@
         <v>0.36589325437784698</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -9511,7 +9578,7 @@
         <v>0.36412575855993701</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>518</v>
       </c>
@@ -9528,7 +9595,7 @@
         <v>0.36229529559367801</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>519</v>
       </c>
@@ -9545,7 +9612,7 @@
         <v>0.36117489366813699</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>520</v>
       </c>
@@ -9562,7 +9629,7 @@
         <v>0.35872217575455501</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>521</v>
       </c>
@@ -9579,7 +9646,7 @@
         <v>0.35600290966685599</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>522</v>
       </c>
@@ -9596,7 +9663,7 @@
         <v>0.35509019744803499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>523</v>
       </c>
@@ -9613,7 +9680,7 @@
         <v>0.353052102612471</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>524</v>
       </c>
@@ -9630,7 +9697,7 @@
         <v>0.351908336595956</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>525</v>
       </c>
@@ -9647,7 +9714,7 @@
         <v>0.34979656801679898</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>526</v>
       </c>
@@ -9664,7 +9731,7 @@
         <v>0.34882550229569997</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>527</v>
       </c>
@@ -9681,7 +9748,7 @@
         <v>0.34799873202591097</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>528</v>
       </c>
@@ -9698,7 +9765,7 @@
         <v>0.34765056413724299</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>529</v>
       </c>
@@ -9715,7 +9782,7 @@
         <v>0.347091994856919</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>530</v>
       </c>
@@ -9732,7 +9799,7 @@
         <v>0.345472747455153</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -9749,7 +9816,7 @@
         <v>0.34472862685079703</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>532</v>
       </c>
@@ -9766,7 +9833,7 @@
         <v>0.34386889370373003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>533</v>
       </c>
@@ -9783,7 +9850,7 @@
         <v>0.343132734641941</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>534</v>
       </c>
@@ -9800,7 +9867,7 @@
         <v>0.34221606056022202</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>535</v>
       </c>
@@ -9817,7 +9884,7 @@
         <v>0.341880554616315</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>536</v>
       </c>
@@ -9834,7 +9901,7 @@
         <v>0.341777543956435</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>537</v>
       </c>
@@ -9851,7 +9918,7 @@
         <v>0.34166924562215201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>538</v>
       </c>
@@ -9868,7 +9935,7 @@
         <v>0.34143696834068898</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>539</v>
       </c>
@@ -9885,7 +9952,7 @@
         <v>0.34138628052035802</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>540</v>
       </c>
@@ -9902,7 +9969,7 @@
         <v>0.34126819876494802</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>541</v>
       </c>
@@ -9919,7 +9986,7 @@
         <v>0.33986512982275002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>542</v>
       </c>
@@ -9936,7 +10003,7 @@
         <v>0.33852304598519301</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>543</v>
       </c>
@@ -9953,7 +10020,7 @@
         <v>0.33742044908527902</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>544</v>
       </c>
@@ -9970,7 +10037,7 @@
         <v>0.33458270750284702</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>545</v>
       </c>
@@ -9987,7 +10054,7 @@
         <v>0.333655217824601</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>546</v>
       </c>
@@ -10004,7 +10071,7 @@
         <v>0.32098132296412302</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>547</v>
       </c>
@@ -10021,7 +10088,7 @@
         <v>0.31935687241956101</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>548</v>
       </c>
@@ -10038,7 +10105,7 @@
         <v>0.31902674535520997</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>549</v>
       </c>
@@ -10055,7 +10122,7 @@
         <v>0.31870274905680501</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>550</v>
       </c>
@@ -10072,7 +10139,7 @@
         <v>0.31843974008755599</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>551</v>
       </c>
@@ -10089,7 +10156,7 @@
         <v>0.31821856314065999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>552</v>
       </c>
@@ -10106,7 +10173,7 @@
         <v>0.31767769878274399</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>553</v>
       </c>
@@ -10123,7 +10190,7 @@
         <v>0.31653839514521598</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>554</v>
       </c>
@@ -10140,7 +10207,7 @@
         <v>0.31329420558086502</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>555</v>
       </c>
@@ -10157,7 +10224,7 @@
         <v>0.31019167986546098</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>556</v>
       </c>
@@ -10174,7 +10241,7 @@
         <v>0.30736108787727701</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>557</v>
       </c>
@@ -10191,7 +10258,7 @@
         <v>0.30549215190774398</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>558</v>
       </c>
@@ -10208,7 +10275,7 @@
         <v>0.30418150270501099</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>559</v>
       </c>
@@ -10225,7 +10292,7 @@
         <v>0.301632429883257</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>560</v>
       </c>
@@ -10242,7 +10309,7 @@
         <v>0.29996017671554598</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>561</v>
       </c>
@@ -10259,7 +10326,7 @@
         <v>0.29464083855353002</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>562</v>
       </c>
@@ -10276,7 +10343,7 @@
         <v>0.29287900857773302</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>563</v>
       </c>
@@ -10293,7 +10360,7 @@
         <v>0.29171288172693599</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>564</v>
       </c>
@@ -10310,7 +10377,7 @@
         <v>0.29085402281463502</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>565</v>
       </c>
@@ -10327,7 +10394,7 @@
         <v>0.28800988129982902</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>566</v>
       </c>
@@ -10344,7 +10411,7 @@
         <v>0.28509079139379201</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>567</v>
       </c>
@@ -10361,7 +10428,7 @@
         <v>0.28287803646426501</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>568</v>
       </c>
@@ -10378,7 +10445,7 @@
         <v>0.28173426377420202</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>569</v>
       </c>
@@ -10395,7 +10462,7 @@
         <v>0.27782325775911099</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>570</v>
       </c>
@@ -10412,7 +10479,7 @@
         <v>0.27671317758755598</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>571</v>
       </c>
@@ -10429,7 +10496,7 @@
         <v>0.26339456016870699</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>572</v>
       </c>
@@ -10446,7 +10513,7 @@
         <v>0.26116462975156601</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>573</v>
       </c>
@@ -10463,7 +10530,7 @@
         <v>0.26084671305523899</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>574</v>
       </c>
@@ -10480,7 +10547,7 @@
         <v>0.26063345760962398</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>575</v>
       </c>
@@ -10497,7 +10564,7 @@
         <v>0.26035945063354199</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>576</v>
       </c>
@@ -10514,7 +10581,7 @@
         <v>0.259451071771782</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>577</v>
       </c>
@@ -10531,7 +10598,7 @@
         <v>0.25900712067554099</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>578</v>
       </c>
@@ -10548,7 +10615,7 @@
         <v>0.25872562820330203</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>579</v>
       </c>
@@ -10565,7 +10632,7 @@
         <v>0.25837830785520999</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>580</v>
       </c>
@@ -10582,7 +10649,7 @@
         <v>0.258183509218394</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>581</v>
       </c>
@@ -10599,7 +10666,7 @@
         <v>0.25777872294988602</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>582</v>
       </c>
@@ -10616,7 +10683,7 @@
         <v>0.25711368833641801</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>583</v>
       </c>
@@ -10633,7 +10700,7 @@
         <v>0.25592239553673102</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>584</v>
       </c>
@@ -10650,7 +10717,7 @@
         <v>0.25509998976722598</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>585</v>
       </c>
@@ -10667,7 +10734,7 @@
         <v>0.25410665219248202</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>586</v>
       </c>
@@ -10684,7 +10751,7 @@
         <v>0.25301848127847298</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>587</v>
       </c>
@@ -10701,7 +10768,7 @@
         <v>0.249594706541856</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>588</v>
       </c>
@@ -10718,7 +10785,7 @@
         <v>0.24899526178103601</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>589</v>
       </c>
@@ -10735,7 +10802,7 @@
         <v>0.24878524745515301</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>590</v>
       </c>
@@ -10752,7 +10819,7 @@
         <v>0.24850117231990301</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>591</v>
       </c>
@@ -10769,7 +10836,7 @@
         <v>0.24705981278473799</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>592</v>
       </c>
@@ -10786,7 +10853,7 @@
         <v>0.24623755160876901</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>593</v>
       </c>
@@ -10803,7 +10870,7 @@
         <v>0.24477128194404801</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>594</v>
       </c>
@@ -10820,7 +10887,7 @@
         <v>0.244287999181378</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>595</v>
       </c>
@@ -10837,7 +10904,7 @@
         <v>0.242984661962556</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>596</v>
       </c>
@@ -10854,7 +10921,7 @@
         <v>0.23995428619732301</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>597</v>
       </c>
@@ -10871,7 +10938,7 @@
         <v>0.23849104409880401</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>598</v>
       </c>
@@ -10888,7 +10955,7 @@
         <v>0.23368257714621299</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>599</v>
       </c>
@@ -10905,7 +10972,7 @@
         <v>0.23257136024701</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>600</v>
       </c>
@@ -10922,7 +10989,7 @@
         <v>0.23156732942411701</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>601</v>
       </c>
@@ -10939,7 +11006,7 @@
         <v>0.229283505659168</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>602</v>
       </c>
@@ -10956,7 +11023,7 @@
         <v>0.22808583294775001</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>603</v>
       </c>
@@ -10973,7 +11040,7 @@
         <v>0.21631868192981199</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>604</v>
       </c>
@@ -10990,7 +11057,7 @@
         <v>0.215216865834994</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>605</v>
       </c>
@@ -11007,7 +11074,7 @@
         <v>0.21493774247223801</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>606</v>
       </c>
@@ -11024,7 +11091,7 @@
         <v>0.21475722522779001</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>607</v>
       </c>
@@ -11041,7 +11108,7 @@
         <v>0.214529643899487</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>608</v>
       </c>
@@ -11058,7 +11125,7 @@
         <v>0.21429028375925399</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>609</v>
       </c>
@@ -11075,7 +11142,7 @@
         <v>0.21389614402405999</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>610</v>
       </c>
@@ -11092,7 +11159,7 @@
         <v>0.212933366849373</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>611</v>
       </c>
@@ -11109,7 +11176,7 @@
         <v>0.205250814172836</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>612</v>
       </c>
@@ -11126,7 +11193,7 @@
         <v>0.202790103573462</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>613</v>
       </c>
@@ -11143,7 +11210,7 @@
         <v>0.20228843073747099</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>614</v>
       </c>
@@ -11160,7 +11227,7 @@
         <v>0.20195291589550099</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>615</v>
       </c>
@@ -11177,7 +11244,7 @@
         <v>0.201661902495017</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>616</v>
       </c>
@@ -11194,7 +11261,7 @@
         <v>0.20127073026409401</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>617</v>
       </c>
@@ -11211,7 +11278,7 @@
         <v>0.201166952146213</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>618</v>
       </c>
@@ -11228,7 +11295,7 @@
         <v>0.20094878496939</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>619</v>
       </c>
@@ -11245,7 +11312,7 @@
         <v>0.19751279319120099</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>620</v>
       </c>
@@ -11262,7 +11329,7 @@
         <v>0.195839623522921</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>621</v>
       </c>
@@ -11279,7 +11346,7 @@
         <v>0.191163929029043</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>622</v>
       </c>
@@ -11296,7 +11363,7 @@
         <v>0.189874383809083</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>623</v>
       </c>
@@ -11313,7 +11380,7 @@
         <v>0.18927633604427599</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>624</v>
       </c>
@@ -11330,7 +11397,7 @@
         <v>0.189090028384823</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>625</v>
       </c>
@@ -11347,7 +11414,7 @@
         <v>0.18861526329370701</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>626</v>
       </c>
@@ -11364,7 +11431,7 @@
         <v>0.188205158207574</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>627</v>
       </c>
@@ -11381,7 +11448,7 @@
         <v>0.18799834496013601</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>628</v>
       </c>
@@ -11398,7 +11465,7 @@
         <v>0.18752934581434999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>629</v>
       </c>
@@ -11415,7 +11482,7 @@
         <v>0.18710172266514799</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>630</v>
       </c>
@@ -11432,7 +11499,7 @@
         <v>0.186829900163724</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>631</v>
       </c>
@@ -11449,7 +11516,7 @@
         <v>0.186585957520643</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>632</v>
       </c>
@@ -11466,7 +11533,7 @@
         <v>0.18642040904399201</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>633</v>
       </c>
@@ -11483,7 +11550,7 @@
         <v>0.186056513827591</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>634</v>
       </c>
@@ -11500,7 +11567,7 @@
         <v>0.18557700606847899</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>635</v>
       </c>
@@ -11517,7 +11584,7 @@
         <v>0.18520877749501699</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>636</v>
       </c>
@@ -11534,7 +11601,7 @@
         <v>0.184899458552818</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>637</v>
       </c>
@@ -11551,7 +11618,7 @@
         <v>0.18405767724943001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>638</v>
       </c>
@@ -11568,7 +11635,7 @@
         <v>0.18360156694903099</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>639</v>
       </c>
@@ -11585,7 +11652,7 @@
         <v>0.183167619500996</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>640</v>
       </c>
@@ -11602,7 +11669,7 @@
         <v>0.18287905529256801</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>641</v>
       </c>
@@ -11619,7 +11686,7 @@
         <v>0.18238585118878101</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>642</v>
       </c>
@@ -11636,7 +11703,7 @@
         <v>0.18137202137314901</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>643</v>
       </c>
@@ -11653,7 +11720,7 @@
         <v>0.18111551021497699</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>644</v>
       </c>
@@ -11670,7 +11737,7 @@
         <v>0.18075935853858199</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>645</v>
       </c>
@@ -11687,7 +11754,7 @@
         <v>0.180538388471668</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>646</v>
       </c>
@@ -11704,7 +11771,7 @@
         <v>0.18018912612115601</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>647</v>
       </c>
@@ -11721,7 +11788,7 @@
         <v>0.18008614437998199</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>648</v>
       </c>
@@ -11738,7 +11805,7 @@
         <v>0.17951183887386099</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>649</v>
       </c>
@@ -11755,7 +11822,7 @@
         <v>0.17875726304456099</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>650</v>
       </c>
@@ -11772,7 +11839,7 @@
         <v>0.17341717904683901</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>651</v>
       </c>
@@ -11789,7 +11856,7 @@
         <v>0.17248004164293801</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>652</v>
       </c>
@@ -11806,7 +11873,7 @@
         <v>0.172296503505837</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>653</v>
       </c>
@@ -11823,7 +11890,7 @@
         <v>0.171659996084851</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>654</v>
       </c>
@@ -11840,7 +11907,7 @@
         <v>0.17083938772423099</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>655</v>
       </c>
@@ -11857,7 +11924,7 @@
         <v>0.17006631282033</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>656</v>
       </c>
@@ -11874,7 +11941,7 @@
         <v>0.168802810008542</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>657</v>
       </c>
@@ -11891,7 +11958,7 @@
         <v>0.16825941415147999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>658</v>
       </c>
@@ -11908,7 +11975,7 @@
         <v>0.16775542114535799</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>659</v>
       </c>
@@ -11925,7 +11992,7 @@
         <v>0.167536301875711</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>660</v>
       </c>
@@ -11942,7 +12009,7 @@
         <v>0.167161844657602</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>661</v>
       </c>
@@ -11959,7 +12026,7 @@
         <v>0.166448380107488</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>662</v>
       </c>
@@ -11976,7 +12043,7 @@
         <v>0.165272133933656</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>663</v>
       </c>
@@ -11993,7 +12060,7 @@
         <v>0.164420573658171</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>664</v>
       </c>
@@ -12010,7 +12077,7 @@
         <v>0.162946856314066</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>665</v>
       </c>
@@ -12027,7 +12094,7 @@
         <v>0.162646179616315</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>666</v>
       </c>
@@ -12044,7 +12111,7 @@
         <v>0.162020745835706</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>667</v>
       </c>
@@ -12061,7 +12128,7 @@
         <v>0.161716674526623</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>668</v>
       </c>
@@ -12078,7 +12145,7 @@
         <v>0.161192482915717</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>669</v>
       </c>
@@ -12095,7 +12162,7 @@
         <v>0.160910363129982</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>670</v>
       </c>
@@ -12112,7 +12179,7 @@
         <v>0.160668789596383</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>671</v>
       </c>
@@ -12129,7 +12196,7 @@
         <v>0.160273126067767</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>672</v>
       </c>
@@ -12146,7 +12213,7 @@
         <v>0.15970485344888899</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>673</v>
       </c>
@@ -12163,7 +12230,7 @@
         <v>0.159353057374715</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>674</v>
       </c>
@@ -12180,7 +12247,7 @@
         <v>0.15919380872722</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>675</v>
       </c>
@@ -12197,7 +12264,7 @@
         <v>0.15889735638524999</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>676</v>
       </c>
@@ -12214,7 +12281,7 @@
         <v>0.15864433326808</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>677</v>
       </c>
@@ -12231,7 +12298,7 @@
         <v>0.15843366493451</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>678</v>
       </c>
@@ -12248,7 +12315,7 @@
         <v>0.15820881086275601</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>679</v>
       </c>
@@ -12265,7 +12332,7 @@
         <v>0.157675674473234</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>680</v>
       </c>
@@ -12282,7 +12349,7 @@
         <v>0.15565903954299501</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>681</v>
       </c>
@@ -12299,7 +12366,7 @@
         <v>0.15357275946753901</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>682</v>
       </c>
@@ -12316,7 +12383,7 @@
         <v>0.15210579797835899</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>683</v>
       </c>
@@ -12333,7 +12400,7 @@
         <v>0.151061926074886</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>684</v>
       </c>
@@ -12350,7 +12417,7 @@
         <v>0.14769406232203799</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>685</v>
       </c>
@@ -12367,7 +12434,7 @@
         <v>0.142104983805523</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>686</v>
       </c>
@@ -12384,7 +12451,7 @@
         <v>0.13261308104356401</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>687</v>
       </c>
@@ -12401,7 +12468,7 @@
         <v>0.12443022138382601</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>688</v>
       </c>
@@ -12418,7 +12485,7 @@
         <v>0.100178108093678</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>689</v>
       </c>
@@ -12448,9 +12515,9 @@
       <selection sqref="A1:E180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12467,7 +12534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -12484,7 +12551,7 @@
         <v>0.34341263213624701</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -12501,7 +12568,7 @@
         <v>0.34334668413653102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -12518,7 +12585,7 @@
         <v>0.34375317660876897</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -12535,7 +12602,7 @@
         <v>0.34359317385037003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -12552,7 +12619,7 @@
         <v>0.34365850343465199</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -12569,7 +12636,7 @@
         <v>0.343379239927391</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>331</v>
       </c>
@@ -12586,7 +12653,7 @@
         <v>0.34292795905111001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>332</v>
       </c>
@@ -12603,7 +12670,7 @@
         <v>0.34113816246084799</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>333</v>
       </c>
@@ -12620,7 +12687,7 @@
         <v>0.33967895118522201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>334</v>
       </c>
@@ -12637,7 +12704,7 @@
         <v>0.33921991787087102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>335</v>
       </c>
@@ -12654,7 +12721,7 @@
         <v>0.33851598537158301</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>336</v>
       </c>
@@ -12671,7 +12738,7 @@
         <v>0.338569740799402</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>337</v>
       </c>
@@ -12688,7 +12755,7 @@
         <v>0.33599814252918497</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -12705,7 +12772,7 @@
         <v>0.33604686387742</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>339</v>
       </c>
@@ -12722,7 +12789,7 @@
         <v>0.336160536642226</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>340</v>
       </c>
@@ -12739,7 +12806,7 @@
         <v>0.33613836711631501</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>341</v>
       </c>
@@ -12756,7 +12823,7 @@
         <v>0.336053497383969</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>342</v>
       </c>
@@ -12773,7 +12840,7 @@
         <v>0.33582035031677099</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -12790,7 +12857,7 @@
         <v>0.33574225201096197</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -12807,7 +12874,7 @@
         <v>0.33558439591044897</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -12824,7 +12891,7 @@
         <v>0.33493432116671401</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>346</v>
       </c>
@@ -12841,7 +12908,7 @@
         <v>0.33467259574316599</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>347</v>
       </c>
@@ -12858,7 +12925,7 @@
         <v>0.33372722095671897</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>348</v>
       </c>
@@ -12875,7 +12942,7 @@
         <v>0.33352382679029002</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>349</v>
       </c>
@@ -12892,7 +12959,7 @@
         <v>0.31826154523775602</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>350</v>
       </c>
@@ -12909,7 +12976,7 @@
         <v>0.31776321807374702</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>351</v>
       </c>
@@ -12926,7 +12993,7 @@
         <v>0.31732205874501701</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>352</v>
       </c>
@@ -12943,7 +13010,7 @@
         <v>0.31694338384467502</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -12960,7 +13027,7 @@
         <v>0.31684025083641798</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>354</v>
       </c>
@@ -12977,7 +13044,7 @@
         <v>0.31657420540290399</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -12994,7 +13061,7 @@
         <v>0.31598500231349602</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>356</v>
       </c>
@@ -13011,7 +13078,7 @@
         <v>0.31416044988610398</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>357</v>
       </c>
@@ -13028,7 +13095,7 @@
         <v>0.31358118370942401</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -13045,7 +13112,7 @@
         <v>0.298301702199601</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -13062,7 +13129,7 @@
         <v>0.29254013916571697</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>360</v>
       </c>
@@ -13079,7 +13146,7 @@
         <v>0.290857364037585</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>361</v>
       </c>
@@ -13096,7 +13163,7 @@
         <v>0.290431680666287</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -13113,7 +13180,7 @@
         <v>0.28994511229356401</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>363</v>
       </c>
@@ -13130,7 +13197,7 @@
         <v>0.28965545807232301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>364</v>
       </c>
@@ -13147,7 +13214,7 @@
         <v>0.28810659657958398</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>365</v>
       </c>
@@ -13164,7 +13231,7 @@
         <v>0.28716805105708998</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -13181,7 +13248,7 @@
         <v>0.28649561547907099</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>367</v>
       </c>
@@ -13198,7 +13265,7 @@
         <v>0.286300754555808</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>368</v>
       </c>
@@ -13215,7 +13282,7 @@
         <v>0.285505205367312</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>369</v>
       </c>
@@ -13232,7 +13299,7 @@
         <v>0.28546491493450998</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>370</v>
       </c>
@@ -13249,7 +13316,7 @@
         <v>0.28528841516585901</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>371</v>
       </c>
@@ -13266,7 +13333,7 @@
         <v>0.28509982070401402</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -13283,7 +13350,7 @@
         <v>0.28494012047978301</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>373</v>
       </c>
@@ -13300,7 +13367,7 @@
         <v>0.28441349079940198</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>374</v>
       </c>
@@ -13317,7 +13384,7 @@
         <v>0.28354081541856402</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -13334,7 +13401,7 @@
         <v>0.28235898570970902</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>376</v>
       </c>
@@ -13351,7 +13418,7 @@
         <v>0.282116537941343</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>377</v>
       </c>
@@ -13368,7 +13435,7 @@
         <v>0.27428045362329101</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>378</v>
       </c>
@@ -13385,7 +13452,7 @@
         <v>0.27367370355210702</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>379</v>
       </c>
@@ -13402,7 +13469,7 @@
         <v>0.27313910343109299</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>380</v>
       </c>
@@ -13419,7 +13486,7 @@
         <v>0.27299914801039199</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>381</v>
       </c>
@@ -13436,7 +13503,7 @@
         <v>0.272473799651195</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>382</v>
       </c>
@@ -13453,7 +13520,7 @@
         <v>0.27225894700313202</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>383</v>
       </c>
@@ -13470,7 +13537,7 @@
         <v>0.25827854721312599</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>384</v>
       </c>
@@ -13487,7 +13554,7 @@
         <v>0.25789850201096198</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>385</v>
       </c>
@@ -13504,7 +13571,7 @@
         <v>0.25743885028117802</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>386</v>
       </c>
@@ -13521,7 +13588,7 @@
         <v>0.257191697661588</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>387</v>
       </c>
@@ -13538,7 +13605,7 @@
         <v>0.257112536037158</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>388</v>
       </c>
@@ -13555,7 +13622,7 @@
         <v>0.25699891888525001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -13572,7 +13639,7 @@
         <v>0.25642822154399197</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>390</v>
       </c>
@@ -13589,7 +13656,7 @@
         <v>0.25608028945401401</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -13606,7 +13673,7 @@
         <v>0.25315586070970902</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -13623,7 +13690,7 @@
         <v>0.25259754724871802</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>393</v>
       </c>
@@ -13640,7 +13707,7 @@
         <v>0.243218227238752</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>394</v>
       </c>
@@ -13657,7 +13724,7 @@
         <v>0.241256217522067</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>395</v>
       </c>
@@ -13674,7 +13741,7 @@
         <v>0.241294065436361</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>396</v>
       </c>
@@ -13691,7 +13758,7 @@
         <v>0.24071001877491399</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>397</v>
       </c>
@@ -13708,7 +13775,7 @@
         <v>0.24057979338695901</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>398</v>
       </c>
@@ -13725,7 +13792,7 @@
         <v>0.24038911900270499</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>399</v>
       </c>
@@ -13742,7 +13809,7 @@
         <v>0.239657655894077</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>400</v>
       </c>
@@ -13759,7 +13826,7 @@
         <v>0.239330741030751</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>401</v>
       </c>
@@ -13776,7 +13843,7 @@
         <v>0.23923786971454999</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>402</v>
       </c>
@@ -13793,7 +13860,7 @@
         <v>0.23840545584780701</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>403</v>
       </c>
@@ -13810,7 +13877,7 @@
         <v>0.23827966614464599</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>404</v>
       </c>
@@ -13827,7 +13894,7 @@
         <v>0.237588622490746</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>405</v>
       </c>
@@ -13844,7 +13911,7 @@
         <v>0.23643884805666199</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>406</v>
       </c>
@@ -13861,7 +13928,7 @@
         <v>0.236060885001423</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>407</v>
       </c>
@@ -13878,7 +13945,7 @@
         <v>0.235649394041856</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>408</v>
       </c>
@@ -13895,7 +13962,7 @@
         <v>0.230522623327164</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>409</v>
       </c>
@@ -13912,7 +13979,7 @@
         <v>0.230200262047978</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>410</v>
       </c>
@@ -13929,7 +13996,7 @@
         <v>0.230292686236474</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>411</v>
       </c>
@@ -13946,7 +14013,7 @@
         <v>0.229854509983627</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -13963,7 +14030,7 @@
         <v>0.229414340564493</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>413</v>
       </c>
@@ -13980,7 +14047,7 @@
         <v>0.22759120070472599</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>414</v>
       </c>
@@ -13997,7 +14064,7 @@
         <v>0.227293716187357</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>415</v>
       </c>
@@ -14014,7 +14081,7 @@
         <v>0.220916716347522</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>416</v>
       </c>
@@ -14031,7 +14098,7 @@
         <v>0.219894473412585</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>417</v>
       </c>
@@ -14048,7 +14115,7 @@
         <v>0.21959971837628101</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>418</v>
       </c>
@@ -14065,7 +14132,7 @@
         <v>0.21928135455224901</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>419</v>
       </c>
@@ -14082,7 +14149,7 @@
         <v>0.219126630570187</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>420</v>
       </c>
@@ -14099,7 +14166,7 @@
         <v>0.21900852434510201</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>421</v>
       </c>
@@ -14116,7 +14183,7 @@
         <v>0.21861231358556299</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>422</v>
       </c>
@@ -14133,7 +14200,7 @@
         <v>0.218381568995586</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>423</v>
       </c>
@@ -14150,7 +14217,7 @@
         <v>0.21535537754484599</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>424</v>
       </c>
@@ -14167,7 +14234,7 @@
         <v>0.215282395625711</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -14184,7 +14251,7 @@
         <v>0.21526331817696401</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>426</v>
       </c>
@@ -14201,7 +14268,7 @@
         <v>0.21521284391016501</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>427</v>
       </c>
@@ -14218,7 +14285,7 @@
         <v>0.21513964398846799</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>428</v>
       </c>
@@ -14235,7 +14302,7 @@
         <v>0.214986446024345</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>429</v>
       </c>
@@ -14252,7 +14319,7 @@
         <v>0.21482191192696401</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>430</v>
       </c>
@@ -14269,7 +14336,7 @@
         <v>0.214169583748576</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>431</v>
       </c>
@@ -14286,7 +14353,7 @@
         <v>0.21161028037798901</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>432</v>
       </c>
@@ -14303,7 +14370,7 @@
         <v>0.211288644291002</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>433</v>
       </c>
@@ -14320,7 +14387,7 @@
         <v>0.20744985941059199</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>434</v>
       </c>
@@ -14337,7 +14404,7 @@
         <v>0.20441999750854201</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>435</v>
       </c>
@@ -14354,7 +14421,7 @@
         <v>0.20117918253488001</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -14371,7 +14438,7 @@
         <v>0.20084958268080799</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>437</v>
       </c>
@@ -14388,7 +14455,7 @@
         <v>0.199563016087699</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>438</v>
       </c>
@@ -14405,7 +14472,7 @@
         <v>0.19885710599373499</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>439</v>
       </c>
@@ -14422,7 +14489,7 @@
         <v>0.19837558504769301</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>440</v>
       </c>
@@ -14439,7 +14506,7 @@
         <v>0.198256282033029</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>441</v>
       </c>
@@ -14456,7 +14523,7 @@
         <v>0.19739404630552301</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>442</v>
       </c>
@@ -14473,7 +14540,7 @@
         <v>0.19687125836417901</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -14490,7 +14557,7 @@
         <v>0.19391211159951499</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>444</v>
       </c>
@@ -14507,7 +14574,7 @@
         <v>0.19392279817411701</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>445</v>
       </c>
@@ -14524,7 +14591,7 @@
         <v>0.193830634253986</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>446</v>
       </c>
@@ -14541,7 +14608,7 @@
         <v>0.19307206986759601</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>447</v>
       </c>
@@ -14558,7 +14625,7 @@
         <v>0.19289035360905399</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>448</v>
       </c>
@@ -14575,7 +14642,7 @@
         <v>0.19246021453231699</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>449</v>
       </c>
@@ -14592,7 +14659,7 @@
         <v>0.19238624715261901</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>450</v>
       </c>
@@ -14609,7 +14676,7 @@
         <v>0.192103177498576</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>451</v>
       </c>
@@ -14626,7 +14693,7 @@
         <v>0.19162111821967501</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>452</v>
       </c>
@@ -14643,7 +14710,7 @@
         <v>0.19135746414080201</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>453</v>
       </c>
@@ -14660,7 +14727,7 @@
         <v>0.18700940747793199</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>454</v>
       </c>
@@ -14677,7 +14744,7 @@
         <v>0.18454322679384899</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>455</v>
       </c>
@@ -14694,7 +14761,7 @@
         <v>0.18145080705438399</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>456</v>
       </c>
@@ -14711,7 +14778,7 @@
         <v>0.181478199743735</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>457</v>
       </c>
@@ -14728,7 +14795,7 @@
         <v>0.18002110843180499</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>458</v>
       </c>
@@ -14745,7 +14812,7 @@
         <v>0.17936848439279601</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>459</v>
       </c>
@@ -14762,7 +14829,7 @@
         <v>0.17886795273348499</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>460</v>
       </c>
@@ -14779,7 +14846,7 @@
         <v>0.178965148508684</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>461</v>
       </c>
@@ -14796,7 +14863,7 @@
         <v>0.178816355086133</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>462</v>
       </c>
@@ -14813,7 +14880,7 @@
         <v>0.178762746476366</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>463</v>
       </c>
@@ -14830,7 +14897,7 @@
         <v>0.178563007189635</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>464</v>
       </c>
@@ -14847,7 +14914,7 @@
         <v>0.17834395020643501</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>465</v>
       </c>
@@ -14864,7 +14931,7 @@
         <v>0.17796369145074001</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>466</v>
       </c>
@@ -14881,7 +14948,7 @@
         <v>0.17192104080651999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>467</v>
       </c>
@@ -14898,7 +14965,7 @@
         <v>0.17039140135606401</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>468</v>
       </c>
@@ -14915,7 +14982,7 @@
         <v>0.17031271355353</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>469</v>
       </c>
@@ -14932,7 +14999,7 @@
         <v>0.16966085252349</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>470</v>
       </c>
@@ -14949,7 +15016,7 @@
         <v>0.16954048841472</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>471</v>
       </c>
@@ -14966,7 +15033,7 @@
         <v>0.16944511674259599</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>472</v>
       </c>
@@ -14983,7 +15050,7 @@
         <v>0.169013707467255</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>473</v>
       </c>
@@ -15000,7 +15067,7 @@
         <v>0.16902229187428799</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>474</v>
       </c>
@@ -15017,7 +15084,7 @@
         <v>0.16805973270216401</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>475</v>
       </c>
@@ -15034,7 +15101,7 @@
         <v>0.16795843714407699</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>476</v>
       </c>
@@ -15051,7 +15118,7 @@
         <v>0.16781134992525601</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>477</v>
       </c>
@@ -15068,7 +15135,7 @@
         <v>0.167226740461275</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>478</v>
       </c>
@@ -15085,7 +15152,7 @@
         <v>0.16699194725227701</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>479</v>
       </c>
@@ -15102,7 +15169,7 @@
         <v>0.16671331550754501</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>480</v>
       </c>
@@ -15119,7 +15186,7 @@
         <v>0.16285751085563699</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>481</v>
       </c>
@@ -15136,7 +15203,7 @@
         <v>0.16285751085563699</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>482</v>
       </c>
@@ -15153,7 +15220,7 @@
         <v>0.16265713535734599</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>483</v>
       </c>
@@ -15170,7 +15237,7 @@
         <v>0.162447603751423</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>484</v>
       </c>
@@ -15187,7 +15254,7 @@
         <v>0.162342228431093</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>485</v>
       </c>
@@ -15204,7 +15271,7 @@
         <v>0.162263840938211</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>486</v>
       </c>
@@ -15221,7 +15288,7 @@
         <v>0.16175722522779001</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>487</v>
       </c>
@@ -15238,7 +15305,7 @@
         <v>0.15926685738183299</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>488</v>
       </c>
@@ -15255,7 +15322,7 @@
         <v>0.156455038083712</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>489</v>
       </c>
@@ -15272,7 +15339,7 @@
         <v>0.15410449441201499</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>490</v>
       </c>
@@ -15289,7 +15356,7 @@
         <v>0.15222449370016999</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>491</v>
       </c>
@@ -15306,7 +15373,7 @@
         <v>0.14896678797693599</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>492</v>
       </c>
@@ -15323,7 +15390,7 @@
         <v>0.14337315810079701</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>493</v>
       </c>
@@ -15340,7 +15407,7 @@
         <v>0.137748140304669</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>494</v>
       </c>
@@ -15357,7 +15424,7 @@
         <v>0.132514922052961</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>495</v>
       </c>
@@ -15374,7 +15441,7 @@
         <v>0.127429073533599</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>496</v>
       </c>
@@ -15391,7 +15458,7 @@
         <v>0.11756586791714101</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>497</v>
       </c>
@@ -15408,7 +15475,7 @@
         <v>0.108512951131833</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>498</v>
       </c>
@@ -15425,7 +15492,7 @@
         <v>9.9151360513952097E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>499</v>
       </c>
@@ -15442,7 +15509,7 @@
         <v>9.0966641158883796E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>500</v>
       </c>
@@ -15459,7 +15526,7 @@
         <v>6.6606140553815404E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>501</v>
       </c>
@@ -15476,7 +15543,7 @@
         <v>5.0640843002562601E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>502</v>
       </c>
@@ -15493,7 +15560,7 @@
         <v>2.7993255267653699E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>503</v>
       </c>
@@ -15523,9 +15590,9 @@
       <selection sqref="A1:E160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15542,7 +15609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -15559,7 +15626,7 @@
         <v>0.34899814252918498</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -15576,7 +15643,7 @@
         <v>0.34805663395145198</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>170</v>
       </c>
@@ -15593,7 +15660,7 @@
         <v>0.34829362498220301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>171</v>
       </c>
@@ -15610,7 +15677,7 @@
         <v>0.34699901231491997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -15627,7 +15694,7 @@
         <v>0.34404766915219198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -15644,7 +15711,7 @@
         <v>0.34413576888169101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -15661,7 +15728,7 @@
         <v>0.34376827217397399</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -15678,7 +15745,7 @@
         <v>0.34300660013880901</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -15695,7 +15762,7 @@
         <v>0.34218713295486902</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -15712,7 +15779,7 @@
         <v>0.34077622259396301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -15729,7 +15796,7 @@
         <v>0.3400478515625</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -15746,7 +15813,7 @@
         <v>0.33951974702804599</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>180</v>
       </c>
@@ -15763,7 +15830,7 @@
         <v>0.33661517876210101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -15780,7 +15847,7 @@
         <v>0.33409999866529</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -15797,7 +15864,7 @@
         <v>0.33293990915076799</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>183</v>
       </c>
@@ -15814,7 +15881,7 @@
         <v>0.32997854231919099</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -15831,7 +15898,7 @@
         <v>0.32836656463553499</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>185</v>
       </c>
@@ -15848,7 +15915,7 @@
         <v>0.32782093313994798</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>186</v>
       </c>
@@ -15865,7 +15932,7 @@
         <v>0.32496607390731702</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -15882,7 +15949,7 @@
         <v>0.32461611305879801</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>188</v>
       </c>
@@ -15899,7 +15966,7 @@
         <v>0.32391661624430501</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -15916,7 +15983,7 @@
         <v>0.32356613930808598</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>190</v>
       </c>
@@ -15933,7 +16000,7 @@
         <v>0.32202152886531799</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -15950,7 +16017,7 @@
         <v>0.32162984054669702</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -15967,7 +16034,7 @@
         <v>0.32149388258115003</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -15984,7 +16051,7 @@
         <v>0.32144096802035799</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -16001,7 +16068,7 @@
         <v>0.32138401596312599</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -16018,7 +16085,7 @@
         <v>0.32132279283527898</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>196</v>
       </c>
@@ -16035,7 +16102,7 @@
         <v>0.32089811049615602</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -16052,7 +16119,7 @@
         <v>0.32031845502918499</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>198</v>
       </c>
@@ -16069,7 +16136,7 @@
         <v>0.32000860887670801</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>199</v>
       </c>
@@ -16086,7 +16153,7 @@
         <v>0.31919058762813202</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>200</v>
       </c>
@@ -16103,7 +16170,7 @@
         <v>0.31882455020287498</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -16120,7 +16187,7 @@
         <v>0.31771095529612697</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>202</v>
       </c>
@@ -16137,7 +16204,7 @@
         <v>0.31749635624288097</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -16154,7 +16221,7 @@
         <v>0.310426048191913</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -16171,7 +16238,7 @@
         <v>0.30994726562500002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -16188,7 +16255,7 @@
         <v>0.309757096205865</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -16205,7 +16272,7 @@
         <v>0.30982142698248799</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>207</v>
       </c>
@@ -16222,7 +16289,7 @@
         <v>0.309053608609766</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -16239,7 +16306,7 @@
         <v>0.30878596819831999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -16256,7 +16323,7 @@
         <v>0.29289253363468098</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>210</v>
       </c>
@@ -16273,7 +16340,7 @@
         <v>0.29268807837414501</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>211</v>
       </c>
@@ -16290,7 +16357,7 @@
         <v>0.29222183985264799</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -16307,7 +16374,7 @@
         <v>0.292161653349231</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -16324,7 +16391,7 @@
         <v>0.29159305595102503</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>214</v>
       </c>
@@ -16341,7 +16408,7 @@
         <v>0.29120916456079099</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>215</v>
       </c>
@@ -16358,7 +16425,7 @@
         <v>0.290258513222522</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>216</v>
       </c>
@@ -16375,7 +16442,7 @@
         <v>0.28885575126352497</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -16392,7 +16459,7 @@
         <v>0.28787407015233402</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -16409,7 +16476,7 @@
         <v>0.286510617614607</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -16426,7 +16493,7 @@
         <v>0.27054628995230601</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -16443,7 +16510,7 @@
         <v>0.270254262172551</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -16460,7 +16527,7 @@
         <v>0.26890815863468098</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>222</v>
       </c>
@@ -16477,7 +16544,7 @@
         <v>0.26814799927035798</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>223</v>
       </c>
@@ -16494,7 +16561,7 @@
         <v>0.267959257990461</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>224</v>
       </c>
@@ -16511,7 +16578,7 @@
         <v>0.2676539342789</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -16528,7 +16595,7 @@
         <v>0.26687730904755103</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>226</v>
       </c>
@@ -16545,7 +16612,7 @@
         <v>0.263210078836845</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>227</v>
       </c>
@@ -16562,7 +16629,7 @@
         <v>0.26134909328729999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>228</v>
       </c>
@@ -16579,7 +16646,7 @@
         <v>0.26063123976722602</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -16596,7 +16663,7 @@
         <v>0.25900053610834201</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>230</v>
       </c>
@@ -16613,7 +16680,7 @@
         <v>0.25835950402192398</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>231</v>
       </c>
@@ -16630,7 +16697,7 @@
         <v>0.25688338864962901</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>232</v>
       </c>
@@ -16647,7 +16714,7 @@
         <v>0.25610108422907102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>233</v>
       </c>
@@ -16664,7 +16731,7 @@
         <v>0.249140235709709</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>234</v>
       </c>
@@ -16681,7 +16748,7 @@
         <v>0.248699941717682</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>235</v>
       </c>
@@ -16698,7 +16765,7 @@
         <v>0.24072985923263099</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>236</v>
       </c>
@@ -16715,7 +16782,7 @@
         <v>0.24021709718465201</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>237</v>
       </c>
@@ -16732,7 +16799,7 @@
         <v>0.239936668031036</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>238</v>
       </c>
@@ -16749,7 +16816,7 @@
         <v>0.23980469639806301</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>239</v>
       </c>
@@ -16766,7 +16833,7 @@
         <v>0.23943539560791499</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>240</v>
       </c>
@@ -16783,7 +16850,7 @@
         <v>0.23913969737685001</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>241</v>
       </c>
@@ -16800,7 +16867,7 @@
         <v>0.23779683050968101</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -16817,7 +16884,7 @@
         <v>0.23701349613823999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>243</v>
       </c>
@@ -16834,7 +16901,7 @@
         <v>0.23546929945543801</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -16851,7 +16918,7 @@
         <v>0.23445855059439</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>245</v>
       </c>
@@ -16868,7 +16935,7 @@
         <v>0.23433325250925399</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>246</v>
       </c>
@@ -16885,7 +16952,7 @@
         <v>0.22056323631477701</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -16902,7 +16969,7 @@
         <v>0.21988749955509601</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>248</v>
       </c>
@@ -16919,7 +16986,7 @@
         <v>0.21973007056164501</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -16936,7 +17003,7 @@
         <v>0.21963703018223199</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>250</v>
       </c>
@@ -16953,7 +17020,7 @@
         <v>0.219355297462272</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -16970,7 +17037,7 @@
         <v>0.218997561930523</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>252</v>
       </c>
@@ -16987,7 +17054,7 @@
         <v>0.21849396488823999</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>253</v>
       </c>
@@ -17004,7 +17071,7 @@
         <v>0.21843008346383799</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>254</v>
       </c>
@@ -17021,7 +17088,7 @@
         <v>0.21107702608912299</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -17038,7 +17105,7 @@
         <v>0.21081764308086501</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>256</v>
       </c>
@@ -17055,7 +17122,7 @@
         <v>0.21074292603929301</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>257</v>
       </c>
@@ -17072,7 +17139,7 @@
         <v>0.21063394032958399</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>258</v>
       </c>
@@ -17089,7 +17156,7 @@
         <v>0.210164576363183</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>259</v>
       </c>
@@ -17106,7 +17173,7 @@
         <v>0.20982463473448101</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>260</v>
       </c>
@@ -17123,7 +17190,7 @@
         <v>0.20906029995372999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>261</v>
       </c>
@@ -17140,7 +17207,7 @@
         <v>0.20878930274772201</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>262</v>
       </c>
@@ -17157,7 +17224,7 @@
         <v>0.20857725521426501</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>263</v>
       </c>
@@ -17174,7 +17241,7 @@
         <v>0.20836056511602999</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>264</v>
       </c>
@@ -17191,7 +17258,7 @@
         <v>0.207788753292283</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>265</v>
       </c>
@@ -17208,7 +17275,7 @@
         <v>0.207495891319048</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -17225,7 +17292,7 @@
         <v>0.20721671456790999</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>267</v>
       </c>
@@ -17242,7 +17309,7 @@
         <v>0.207086308994162</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>268</v>
       </c>
@@ -17259,7 +17326,7 @@
         <v>0.20687287113823999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>269</v>
       </c>
@@ -17276,7 +17343,7 @@
         <v>0.205779419223377</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>270</v>
       </c>
@@ -17293,7 +17360,7 @@
         <v>0.202468578712272</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>271</v>
       </c>
@@ -17310,7 +17377,7 @@
         <v>0.19935141345743099</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>272</v>
       </c>
@@ -17327,7 +17394,7 @@
         <v>0.19891354863681601</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>273</v>
       </c>
@@ -17344,7 +17411,7 @@
         <v>0.19712475307873001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>274</v>
       </c>
@@ -17361,7 +17428,7 @@
         <v>0.196556989874003</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>275</v>
       </c>
@@ -17378,7 +17445,7 @@
         <v>0.196260197181093</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>276</v>
       </c>
@@ -17395,7 +17462,7 @@
         <v>0.19595599240105299</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>277</v>
       </c>
@@ -17412,7 +17479,7 @@
         <v>0.19573482212770499</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -17429,7 +17496,7 @@
         <v>0.19533472736332499</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>279</v>
       </c>
@@ -17446,7 +17513,7 @@
         <v>0.19512236617312001</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>280</v>
       </c>
@@ -17463,7 +17530,7 @@
         <v>0.194697755018507</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>281</v>
       </c>
@@ -17480,7 +17547,7 @@
         <v>0.194590871476366</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>282</v>
       </c>
@@ -17497,7 +17564,7 @@
         <v>0.19432407638097901</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>283</v>
       </c>
@@ -17514,7 +17581,7 @@
         <v>0.194001227932801</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>284</v>
       </c>
@@ -17531,7 +17598,7 @@
         <v>0.19344252295700401</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>285</v>
       </c>
@@ -17548,7 +17615,7 @@
         <v>0.19182007225227701</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>286</v>
       </c>
@@ -17565,7 +17632,7 @@
         <v>0.19084234633043801</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>287</v>
       </c>
@@ -17582,7 +17649,7 @@
         <v>0.190230628915148</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>288</v>
       </c>
@@ -17599,7 +17666,7 @@
         <v>0.18984194591756801</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>289</v>
       </c>
@@ -17616,7 +17683,7 @@
         <v>0.18951732008114999</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>290</v>
       </c>
@@ -17633,7 +17700,7 @@
         <v>0.18914413306164499</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>291</v>
       </c>
@@ -17650,7 +17717,7 @@
         <v>0.188887455064777</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -17667,7 +17734,7 @@
         <v>0.188567952288582</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>293</v>
       </c>
@@ -17684,7 +17751,7 @@
         <v>0.17708919641585899</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>294</v>
       </c>
@@ -17701,7 +17768,7 @@
         <v>0.176463177587556</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>295</v>
       </c>
@@ -17718,7 +17785,7 @@
         <v>0.17623304696398001</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>296</v>
       </c>
@@ -17735,7 +17802,7 @@
         <v>0.17569068550683301</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>297</v>
       </c>
@@ -17752,7 +17819,7 @@
         <v>0.175137150306093</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>298</v>
       </c>
@@ -17769,7 +17836,7 @@
         <v>0.174530142191059</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>299</v>
       </c>
@@ -17786,7 +17853,7 @@
         <v>0.174149342877989</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>300</v>
       </c>
@@ -17803,7 +17870,7 @@
         <v>0.173834889752989</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>301</v>
       </c>
@@ -17820,7 +17887,7 @@
         <v>0.17341483885606401</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>302</v>
       </c>
@@ -17837,7 +17904,7 @@
         <v>0.17321360024558599</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>303</v>
       </c>
@@ -17854,7 +17921,7 @@
         <v>0.17281563434296601</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>304</v>
       </c>
@@ -17871,7 +17938,7 @@
         <v>0.172547144166429</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>305</v>
       </c>
@@ -17888,7 +17955,7 @@
         <v>0.17218974898562001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>306</v>
       </c>
@@ -17905,7 +17972,7 @@
         <v>0.17183070988752799</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>307</v>
       </c>
@@ -17922,7 +17989,7 @@
         <v>0.17106131433300101</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>308</v>
       </c>
@@ -17939,7 +18006,7 @@
         <v>0.17078395946042099</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>309</v>
       </c>
@@ -17956,7 +18023,7 @@
         <v>0.165284248647494</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>310</v>
       </c>
@@ -17973,7 +18040,7 @@
         <v>0.16485275039151401</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>311</v>
       </c>
@@ -17990,7 +18057,7 @@
         <v>0.16472860015660501</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>312</v>
       </c>
@@ -18007,7 +18074,7 @@
         <v>0.16454870355210699</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>313</v>
       </c>
@@ -18024,7 +18091,7 @@
         <v>0.16422557481492001</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>314</v>
       </c>
@@ -18041,7 +18108,7 @@
         <v>0.163803895572323</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>315</v>
       </c>
@@ -18058,7 +18125,7 @@
         <v>0.16148230175113801</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -18075,7 +18142,7 @@
         <v>0.159044307908599</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>317</v>
       </c>
@@ -18092,7 +18159,7 @@
         <v>0.157182832965546</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>318</v>
       </c>
@@ -18109,7 +18176,7 @@
         <v>0.15574558211133199</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>319</v>
       </c>
@@ -18126,7 +18193,7 @@
         <v>0.152063901445045</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>320</v>
       </c>
@@ -18143,7 +18210,7 @@
         <v>0.14594279879698099</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>321</v>
       </c>
@@ -18160,7 +18227,7 @@
         <v>0.14017453997010201</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>322</v>
       </c>
@@ -18177,7 +18244,7 @@
         <v>0.13495732488610401</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>323</v>
       </c>
@@ -18194,7 +18261,7 @@
         <v>0.124974311289863</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>324</v>
       </c>
@@ -18211,7 +18278,7 @@
         <v>0.116630801537585</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -18228,7 +18295,7 @@
         <v>9.2079263952163995E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>326</v>
       </c>
@@ -18258,9 +18325,9 @@
       <selection sqref="A1:E165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18277,7 +18344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -18294,7 +18361,7 @@
         <v>0.34123278219999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -18311,7 +18378,7 @@
         <v>0.34145472669999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -18328,7 +18395,7 @@
         <v>0.34044724119999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -18345,7 +18412,7 @@
         <v>0.34000443790000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -18362,7 +18429,7 @@
         <v>0.34068249039999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -18379,7 +18446,7 @@
         <v>0.34012705100000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -18396,7 +18463,7 @@
         <v>0.34121327769999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -18413,7 +18480,7 @@
         <v>0.3404944298</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -18430,7 +18497,7 @@
         <v>0.34042583910000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -18447,7 +18514,7 @@
         <v>0.34045494240000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -18464,7 +18531,7 @@
         <v>0.34191065679999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -18481,7 +18548,7 @@
         <v>0.33921820720000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -18498,7 +18565,7 @@
         <v>0.3363117303</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -18515,7 +18582,7 @@
         <v>0.33055434049999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -18532,7 +18599,7 @@
         <v>0.33110944170000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -18549,7 +18616,7 @@
         <v>0.32831260229999998</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -18566,7 +18633,7 @@
         <v>0.3261425537</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -18583,7 +18650,7 @@
         <v>0.32334044880000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -18600,7 +18667,7 @@
         <v>0.3226060872</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -18617,7 +18684,7 @@
         <v>0.32271324210000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -18634,7 +18701,7 @@
         <v>0.32312117379999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -18651,7 +18718,7 @@
         <v>0.32296375599999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -18668,7 +18735,7 @@
         <v>0.32258134389999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -18685,7 +18752,7 @@
         <v>0.3228811285</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -18702,7 +18769,7 @@
         <v>0.32250112339999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -18719,7 +18786,7 @@
         <v>0.30611547239999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -18736,7 +18803,7 @@
         <v>0.3058419704</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -18753,7 +18820,7 @@
         <v>0.30585029679999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -18770,7 +18837,7 @@
         <v>0.30577400700000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -18787,7 +18854,7 @@
         <v>0.3050317817</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -18804,7 +18871,7 @@
         <v>0.30459099830000003</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -18821,7 +18888,7 @@
         <v>0.30424438529999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -18838,7 +18905,7 @@
         <v>0.30372311889999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -18855,7 +18922,7 @@
         <v>0.29913528839999998</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -18872,7 +18939,7 @@
         <v>0.29868233690000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -18889,7 +18956,7 @@
         <v>0.28981443759999997</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -18906,7 +18973,7 @@
         <v>0.28956686009999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -18923,7 +18990,7 @@
         <v>0.28661410209999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -18940,7 +19007,7 @@
         <v>0.28623584990000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -18957,7 +19024,7 @@
         <v>0.28216872059999998</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -18974,7 +19041,7 @@
         <v>0.27968135370000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -18991,7 +19058,7 @@
         <v>0.27980719450000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -19008,7 +19075,7 @@
         <v>0.27756238430000002</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -19025,7 +19092,7 @@
         <v>0.27688685000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -19042,7 +19109,7 @@
         <v>0.27676495759999997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -19059,7 +19126,7 @@
         <v>0.27673628810000001</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -19076,7 +19143,7 @@
         <v>0.27585272370000002</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -19093,7 +19160,7 @@
         <v>0.27588896769999999</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -19110,7 +19177,7 @@
         <v>0.27594550600000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -19127,7 +19194,7 @@
         <v>0.27557233460000002</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -19144,7 +19211,7 @@
         <v>0.27577661860000002</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -19161,7 +19228,7 @@
         <v>0.27595863069999998</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -19178,7 +19245,7 @@
         <v>0.25708817309999998</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -19195,7 +19262,7 @@
         <v>0.25718922620000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -19212,7 +19279,7 @@
         <v>0.2571428362</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -19229,7 +19296,7 @@
         <v>0.25720265339999998</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -19246,7 +19313,7 @@
         <v>0.25619663390000003</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -19263,7 +19330,7 @@
         <v>0.2555244586</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -19280,7 +19347,7 @@
         <v>0.25505202249999998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -19297,7 +19364,7 @@
         <v>0.2465929647</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -19314,7 +19381,7 @@
         <v>0.24629989590000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -19331,7 +19398,7 @@
         <v>0.24515946669999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -19348,7 +19415,7 @@
         <v>0.24574580009999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -19365,7 +19432,7 @@
         <v>0.23781155900000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -19382,7 +19449,7 @@
         <v>0.237735207</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -19399,7 +19466,7 @@
         <v>0.23437910649999999</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -19416,7 +19483,7 @@
         <v>0.23414462250000001</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -19433,7 +19500,7 @@
         <v>0.2341039472</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -19450,7 +19517,7 @@
         <v>0.2339974752</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -19467,7 +19534,7 @@
         <v>0.23468587169999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -19484,7 +19551,7 @@
         <v>0.23456294489999999</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -19501,7 +19568,7 @@
         <v>0.23440629669999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -19518,7 +19585,7 @@
         <v>0.23438241209999999</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -19535,7 +19602,7 @@
         <v>0.2346485042</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -19552,7 +19619,7 @@
         <v>0.2346912172</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -19569,7 +19636,7 @@
         <v>0.23419583299999999</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -19586,7 +19653,7 @@
         <v>0.23390198340000001</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -19603,7 +19670,7 @@
         <v>0.2334421804</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -19620,7 +19687,7 @@
         <v>0.23356303389999999</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -19637,7 +19704,7 @@
         <v>0.2335607582</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -19654,7 +19721,7 @@
         <v>0.23269151530000001</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -19671,7 +19738,7 @@
         <v>0.23249236549999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -19688,7 +19755,7 @@
         <v>0.23263642070000001</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -19705,7 +19772,7 @@
         <v>0.23244162870000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -19722,7 +19789,7 @@
         <v>0.2321214808</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -19739,7 +19806,7 @@
         <v>0.22821402290000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -19756,7 +19823,7 @@
         <v>0.2258453027</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -19773,7 +19840,7 @@
         <v>0.2254215369</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -19790,7 +19857,7 @@
         <v>0.22372582169999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -19807,7 +19874,7 @@
         <v>0.22298257539999999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -19824,7 +19891,7 @@
         <v>0.22297951669999999</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -19841,7 +19908,7 @@
         <v>0.2226818052</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -19858,7 +19925,7 @@
         <v>0.22307153599999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -19875,7 +19942,7 @@
         <v>0.21397934090000001</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -19892,7 +19959,7 @@
         <v>0.21397088550000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -19909,7 +19976,7 @@
         <v>0.21461239139999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -19926,7 +19993,7 @@
         <v>0.20107225670000001</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -19943,7 +20010,7 @@
         <v>0.20131013980000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -19960,7 +20027,7 @@
         <v>0.20064629749999999</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -19977,7 +20044,7 @@
         <v>0.20051992499999999</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -19994,7 +20061,7 @@
         <v>0.20048764729999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -20011,7 +20078,7 @@
         <v>0.2003664067</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -20028,7 +20095,7 @@
         <v>0.19668625870000001</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -20045,7 +20112,7 @@
         <v>0.1966349547</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -20062,7 +20129,7 @@
         <v>0.1966732987</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -20079,7 +20146,7 @@
         <v>0.19654964450000001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -20096,7 +20163,7 @@
         <v>0.19629932859999999</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -20113,7 +20180,7 @@
         <v>0.19623985839999999</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -20130,7 +20197,7 @@
         <v>0.19667560110000001</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -20147,7 +20214,7 @@
         <v>0.1958030369</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -20164,7 +20231,7 @@
         <v>0.1956800034</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -20181,7 +20248,7 @@
         <v>0.19586737879999999</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -20198,7 +20265,7 @@
         <v>0.19489382159999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -20215,7 +20282,7 @@
         <v>0.1940428642</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -20232,7 +20299,7 @@
         <v>0.1939481109</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -20249,7 +20316,7 @@
         <v>0.19375866</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -20266,7 +20333,7 @@
         <v>0.19314676019999999</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -20283,7 +20350,7 @@
         <v>0.1927303286</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -20300,7 +20367,7 @@
         <v>0.19245003290000001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -20317,7 +20384,7 @@
         <v>0.19253569009999999</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -20334,7 +20401,7 @@
         <v>0.19259817009999999</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -20351,7 +20418,7 @@
         <v>0.18780498779999999</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -20368,7 +20435,7 @@
         <v>0.18832282180000001</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -20385,7 +20452,7 @@
         <v>0.1874357716</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -20402,7 +20469,7 @@
         <v>0.18778183949999999</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -20419,7 +20486,7 @@
         <v>0.18747906950000001</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -20436,7 +20503,7 @@
         <v>0.18717623059999999</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -20453,7 +20520,7 @@
         <v>0.1871845147</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -20470,7 +20537,7 @@
         <v>0.17226655260000001</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -20487,7 +20554,7 @@
         <v>0.1721077533</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -20504,7 +20571,7 @@
         <v>0.1719416865</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -20521,7 +20588,7 @@
         <v>0.17200654679999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -20538,7 +20605,7 @@
         <v>0.17141451190000001</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -20555,7 +20622,7 @@
         <v>0.1710607271</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -20572,7 +20639,7 @@
         <v>0.1713904604</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -20589,7 +20656,7 @@
         <v>0.17096435439999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -20606,7 +20673,7 @@
         <v>0.1712770368</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -20623,7 +20690,7 @@
         <v>0.16830279670000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -20640,7 +20707,7 @@
         <v>0.1683128337</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -20657,7 +20724,7 @@
         <v>0.16815244609999999</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -20674,7 +20741,7 @@
         <v>0.1680829744</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -20691,7 +20758,7 @@
         <v>0.16777877629999999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -20708,7 +20775,7 @@
         <v>0.16810409400000001</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -20725,7 +20792,7 @@
         <v>0.1682397316</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -20742,7 +20809,7 @@
         <v>0.16793019470000001</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -20759,7 +20826,7 @@
         <v>0.1674021658</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -20776,7 +20843,7 @@
         <v>0.1670761496</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -20793,7 +20860,7 @@
         <v>0.164231977</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -20810,7 +20877,7 @@
         <v>0.16136725869999999</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -20827,7 +20894,7 @@
         <v>0.1589479463</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -20844,7 +20911,7 @@
         <v>0.15692124769999999</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -20861,7 +20928,7 @@
         <v>0.15325622420000001</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -20878,7 +20945,7 @@
         <v>0.14700174399999999</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -20895,7 +20962,7 @@
         <v>0.14041319939999999</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -20912,7 +20979,7 @@
         <v>0.1342363593</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -20929,7 +20996,7 @@
         <v>0.12898963820000001</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -20946,7 +21013,7 @@
         <v>0.1188848057</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -20963,7 +21030,7 @@
         <v>0.1096364251</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -20980,7 +21047,7 @@
         <v>0.10009565419999999</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -20997,7 +21064,7 @@
         <v>9.1779572710000007E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -21014,7 +21081,7 @@
         <v>6.719907638E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -21031,7 +21098,7 @@
         <v>5.1027352650000003E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -21048,7 +21115,7 @@
         <v>2.820279132E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>168</v>
       </c>
